--- a/benchmarks/results/plots/results-TestsvsPlock.xlsx
+++ b/benchmarks/results/plots/results-TestsvsPlock.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8014,6 +8014,3075 @@
         <v>0.04837253180190042</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1072793.095470052</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>56.68049267723759</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2640.981414812572</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.05165412374064176</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1178212.070169422</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G246" t="n">
+        <v>56.68410045000375</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2417.163433815813</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.05208385519669351</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1172010.954010635</v>
+      </c>
+      <c r="F247" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G247" t="n">
+        <v>56.68390104686695</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2424.184287366098</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.05207036300450743</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E248" t="n">
+        <v>781340.6360070902</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>56.66539073758901</v>
+      </c>
+      <c r="H248" t="n">
+        <v>3586.763275745398</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.04983744483730167</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E249" t="n">
+        <v>942569.6561355372</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>56.67449418787358</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2993.547237371521</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.05097654249276338</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E250" t="n">
+        <v>954971.8884531101</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G250" t="n">
+        <v>56.67507159022423</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2955.220046466073</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.05105012745363718</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1109999.792422771</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>56.68196107412088</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2553.49588530755</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.0518222399689018</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E252" t="n">
+        <v>669720.5451489342</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>56.65837316718935</v>
+      </c>
+      <c r="H252" t="n">
+        <v>4137.208664488034</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.04878192422973256</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1066591.979311266</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>56.68024142879938</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2656.237800050656</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.05162480878770818</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1054189.746993693</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>56.67973224525753</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2687.340671586911</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.05156504830177741</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E255" t="n">
+        <v>917765.1915003917</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>56.67361906009078</v>
+      </c>
+      <c r="H255" t="n">
+        <v>3074.31262676658</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.05082231846862658</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E256" t="n">
+        <v>675921.6613077208</v>
+      </c>
+      <c r="F256" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G256" t="n">
+        <v>56.65876344062507</v>
+      </c>
+      <c r="H256" t="n">
+        <v>4102.924508474816</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.04884755559877484</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E257" t="n">
+        <v>905362.9591828187</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G257" t="n">
+        <v>56.67300666801709</v>
+      </c>
+      <c r="H257" t="n">
+        <v>3115.4547434807</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.05074333546601673</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1091396.443946412</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>56.68124113631831</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2596.488440837139</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.05173961673900639</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E259" t="n">
+        <v>861955.1460713138</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G259" t="n">
+        <v>56.67062599061922</v>
+      </c>
+      <c r="H259" t="n">
+        <v>3267.557709748629</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.05045097770986243</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E260" t="n">
+        <v>936368.5399767508</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>56.67405929626911</v>
+      </c>
+      <c r="H260" t="n">
+        <v>3013.721688961359</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.05093749982842249</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E261" t="n">
+        <v>768938.4036895173</v>
+      </c>
+      <c r="F261" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>56.66425303430641</v>
+      </c>
+      <c r="H261" t="n">
+        <v>3641.102858139988</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.04973255035664968</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E262" t="n">
+        <v>626312.7320374293</v>
+      </c>
+      <c r="F262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>56.65532229713481</v>
+      </c>
+      <c r="H262" t="n">
+        <v>4391.914224581619</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.04829385294716138</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1103798.676263984</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>56.68172323076406</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2567.646670430119</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.05179504399913257</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E264" t="n">
+        <v>632513.8481962158</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>56.65565750664638</v>
+      </c>
+      <c r="H264" t="n">
+        <v>4353.855806272697</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.0483666115202265</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E265" t="n">
+        <v>992178.5854058288</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>56.6772204517948</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2849.454335177881</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.05125394765882731</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1153407.605534276</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G266" t="n">
+        <v>56.68317117937617</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2462.09652049243</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.05199740420424755</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E267" t="n">
+        <v>948770.7722943235</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G267" t="n">
+        <v>56.67478406795208</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2974.258440690549</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.05101357465021029</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E268" t="n">
+        <v>961173.0046118966</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G268" t="n">
+        <v>56.67573559703194</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2937.573297700369</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.05108459222872141</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1029385.282358547</v>
+      </c>
+      <c r="F269" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G269" t="n">
+        <v>56.67879830643131</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2751.813183180004</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.05144129291948224</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E270" t="n">
+        <v>688323.8936252937</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G270" t="n">
+        <v>56.65944394853116</v>
+      </c>
+      <c r="H270" t="n">
+        <v>4035.306151950784</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.04897698999757925</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E271" t="n">
+        <v>868156.2622301002</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G271" t="n">
+        <v>56.6705550298608</v>
+      </c>
+      <c r="H271" t="n">
+        <v>3241.410258382828</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.05050052444958403</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1078994.211628839</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>56.68074171425983</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2625.917833200137</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.05168306926817517</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E273" t="n">
+        <v>967374.120770683</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G273" t="n">
+        <v>56.67591238954119</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2918.764488521347</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.05112042210434328</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E274" t="n">
+        <v>979776.3530882559</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G274" t="n">
+        <v>56.67608763337426</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2891.165325278943</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.05117294537509536</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1010781.933882188</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G275" t="n">
+        <v>56.67771541702132</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2802.454146166868</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.05134360089919509</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E276" t="n">
+        <v>923966.3076591779</v>
+      </c>
+      <c r="F276" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G276" t="n">
+        <v>56.67372882379519</v>
+      </c>
+      <c r="H276" t="n">
+        <v>3049.818155163679</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.05086867748430641</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1023184.166199761</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G277" t="n">
+        <v>56.67825506213479</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2768.558863955212</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.05140871274119792</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E278" t="n">
+        <v>700726.1259428666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>56.66048631504079</v>
+      </c>
+      <c r="H278" t="n">
+        <v>3970.11960546915</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.04910230053072178</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1184413.186328208</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>56.68425231918151</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2404.739324975647</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.05210767813730683</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E280" t="n">
+        <v>849552.9137537408</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G280" t="n">
+        <v>56.66931784012294</v>
+      </c>
+      <c r="H280" t="n">
+        <v>3308.14722744577</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.05037209870694535</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E281" t="n">
+        <v>756536.1713719442</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G281" t="n">
+        <v>56.66354552571458</v>
+      </c>
+      <c r="H281" t="n">
+        <v>3697.166530294654</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.04962506682121812</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E282" t="n">
+        <v>812346.2168010224</v>
+      </c>
+      <c r="F282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G282" t="n">
+        <v>56.66734819694985</v>
+      </c>
+      <c r="H282" t="n">
+        <v>3456.080579681085</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.05008832494771949</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1035586.398517334</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G283" t="n">
+        <v>56.67895706245374</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2735.702502070864</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.05147211944004597</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E284" t="n">
+        <v>787541.7521658764</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G284" t="n">
+        <v>56.66574084723335</v>
+      </c>
+      <c r="H284" t="n">
+        <v>3560.003458535251</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.04988875944469699</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E285" t="n">
+        <v>985977.4692470422</v>
+      </c>
+      <c r="F285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G285" t="n">
+        <v>56.67636562516513</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2873.077183495716</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.05120768028404287</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1203016.534804567</v>
+      </c>
+      <c r="F286" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G286" t="n">
+        <v>56.68477089931686</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2368.331043072458</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.05217743978705382</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1047988.630834906</v>
+      </c>
+      <c r="F287" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>56.67946754673265</v>
+      </c>
+      <c r="H287" t="n">
+        <v>2703.150764410212</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.0515346586482671</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1122402.024740344</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>56.68209245645519</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2523.194175767794</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.05187989001463664</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1085195.327787625</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G289" t="n">
+        <v>56.6809968574137</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2611.184858067354</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.05171137508051973</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E290" t="n">
+        <v>762737.2875307308</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>56.66390362719024</v>
+      </c>
+      <c r="H290" t="n">
+        <v>3668.938525434899</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.04967918416420861</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1227820.999439713</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G291" t="n">
+        <v>56.68558988243593</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2322.016523561291</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.05226649054608069</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E292" t="n">
+        <v>744133.9390543716</v>
+      </c>
+      <c r="F292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G292" t="n">
+        <v>56.66282982592257</v>
+      </c>
+      <c r="H292" t="n">
+        <v>3754.829515559863</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.0495145312257048</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E293" t="n">
+        <v>793742.8683246629</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G293" t="n">
+        <v>56.66632816319424</v>
+      </c>
+      <c r="H293" t="n">
+        <v>3532.068917545515</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.04994265624808597</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E294" t="n">
+        <v>737932.8228955851</v>
+      </c>
+      <c r="F294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>56.66246898848611</v>
+      </c>
+      <c r="H294" t="n">
+        <v>3784.276670334546</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.0494580887339874</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1134804.257057917</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G295" t="n">
+        <v>56.68238340553353</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2501.276528956058</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.05192188924701584</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1097597.560105198</v>
+      </c>
+      <c r="F296" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G296" t="n">
+        <v>56.68153528832146</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2582.044909705169</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.05176745651366862</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E297" t="n">
+        <v>855754.0299125273</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G297" t="n">
+        <v>56.67030308083989</v>
+      </c>
+      <c r="H297" t="n">
+        <v>3290.704574803025</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.05040656659972227</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E298" t="n">
+        <v>719329.4744192258</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G298" t="n">
+        <v>56.66133572797417</v>
+      </c>
+      <c r="H298" t="n">
+        <v>3875.10032599379</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.04928400787613663</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1128603.14089913</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G299" t="n">
+        <v>56.68232255949815</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2509.609067224411</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.05190600067603433</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1190614.302486994</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G300" t="n">
+        <v>56.68433471382376</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2392.334616893283</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.05213127778598332</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1141005.373216703</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G301" t="n">
+        <v>56.682677108292</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2487.953471930761</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.05194761202886361</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E302" t="n">
+        <v>663519.4289901479</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G302" t="n">
+        <v>56.65799141210717</v>
+      </c>
+      <c r="H302" t="n">
+        <v>4172.113490539857</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.04871507604884587</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1209217.650963354</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G303" t="n">
+        <v>56.6849784106948</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2356.544681262053</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.05220010094841927</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E304" t="n">
+        <v>874357.3783888866</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G304" t="n">
+        <v>56.67152232288163</v>
+      </c>
+      <c r="H304" t="n">
+        <v>3221.064642318628</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.05054057511612236</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E305" t="n">
+        <v>880558.494547673</v>
+      </c>
+      <c r="F305" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G305" t="n">
+        <v>56.67188190252937</v>
+      </c>
+      <c r="H305" t="n">
+        <v>3198.847829108341</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.05058325082885651</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E306" t="n">
+        <v>682122.7774665073</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G306" t="n">
+        <v>56.65914173655499</v>
+      </c>
+      <c r="H306" t="n">
+        <v>4068.975861527711</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.0489125814432865</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E307" t="n">
+        <v>620111.615878643</v>
+      </c>
+      <c r="F307" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G307" t="n">
+        <v>56.65519792301154</v>
+      </c>
+      <c r="H307" t="n">
+        <v>4430.595581919822</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.04822012939658356</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E308" t="n">
+        <v>644916.0805137887</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G308" t="n">
+        <v>56.65649596484396</v>
+      </c>
+      <c r="H308" t="n">
+        <v>4279.484381171912</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.04850905829854518</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1041787.51467612</v>
+      </c>
+      <c r="F309" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G309" t="n">
+        <v>56.67921913781323</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2719.427169049934</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.05150338611741596</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E310" t="n">
+        <v>694525.0097840801</v>
+      </c>
+      <c r="F310" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G310" t="n">
+        <v>56.66011395466933</v>
+      </c>
+      <c r="H310" t="n">
+        <v>4002.690567050909</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.04903990272286379</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E311" t="n">
+        <v>799943.9844834494</v>
+      </c>
+      <c r="F311" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G311" t="n">
+        <v>56.66625609063962</v>
+      </c>
+      <c r="H311" t="n">
+        <v>3505.930924571194</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.04999210382704296</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E312" t="n">
+        <v>930167.4238179644</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G312" t="n">
+        <v>56.67335107307855</v>
+      </c>
+      <c r="H312" t="n">
+        <v>3033.577823137894</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.05089885509875607</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1215418.76712214</v>
+      </c>
+      <c r="F313" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G313" t="n">
+        <v>56.68518406835047</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2344.898143557535</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.0522224939078268</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E314" t="n">
+        <v>818547.3329598086</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G314" t="n">
+        <v>56.66773356580151</v>
+      </c>
+      <c r="H314" t="n">
+        <v>3430.921206099822</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.05013662818934533</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E315" t="n">
+        <v>731731.7067367986</v>
+      </c>
+      <c r="F315" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G315" t="n">
+        <v>56.66202346445814</v>
+      </c>
+      <c r="H315" t="n">
+        <v>3814.075554591312</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.04940089765149461</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1221619.883280927</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G316" t="n">
+        <v>56.68538788726404</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2333.389417822866</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.05224462251164786</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1196815.418645781</v>
+      </c>
+      <c r="F317" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G317" t="n">
+        <v>56.6845460700529</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2380.261942061697</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.05215448814956149</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E318" t="n">
+        <v>725530.5905780124</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G318" t="n">
+        <v>56.66170317181162</v>
+      </c>
+      <c r="H318" t="n">
+        <v>3844.400151840449</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.04934284144935765</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E319" t="n">
+        <v>706927.2421016529</v>
+      </c>
+      <c r="F319" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G319" t="n">
+        <v>56.66085701176659</v>
+      </c>
+      <c r="H319" t="n">
+        <v>3938.010113116669</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.04916381857568702</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E320" t="n">
+        <v>973575.2369294695</v>
+      </c>
+      <c r="F320" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G320" t="n">
+        <v>56.67616087074545</v>
+      </c>
+      <c r="H320" t="n">
+        <v>2900.283713788272</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.05115588666221926</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1004580.817723401</v>
+      </c>
+      <c r="F321" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G321" t="n">
+        <v>56.67782699653186</v>
+      </c>
+      <c r="H321" t="n">
+        <v>2814.747864955866</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.05132054359429333</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1147206.48937549</v>
+      </c>
+      <c r="F322" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G322" t="n">
+        <v>56.68290063859148</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2474.839093053104</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.05197281896796588</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1060390.86315248</v>
+      </c>
+      <c r="F323" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G323" t="n">
+        <v>56.67998795577275</v>
+      </c>
+      <c r="H323" t="n">
+        <v>2671.689899888269</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.0515951188553376</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E324" t="n">
+        <v>837150.6814361679</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G324" t="n">
+        <v>56.66869655067428</v>
+      </c>
+      <c r="H324" t="n">
+        <v>3356.906346503915</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.05027865222253077</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E325" t="n">
+        <v>886759.6107064595</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G325" t="n">
+        <v>56.67206975965276</v>
+      </c>
+      <c r="H325" t="n">
+        <v>3179.291615132578</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.05062079895551815</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E326" t="n">
+        <v>998379.7015646149</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G326" t="n">
+        <v>56.6774677307554</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2831.965290598342</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.05128737627508681</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1016983.050040975</v>
+      </c>
+      <c r="F327" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G327" t="n">
+        <v>56.67798638299627</v>
+      </c>
+      <c r="H327" t="n">
+        <v>2785.395174180874</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.05137636991583319</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1159608.721693062</v>
+      </c>
+      <c r="F328" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G328" t="n">
+        <v>56.6833907921217</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2449.268215504868</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.0520220617837083</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E329" t="n">
+        <v>899161.8430240322</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G329" t="n">
+        <v>56.67269680864766</v>
+      </c>
+      <c r="H329" t="n">
+        <v>3136.44643573069</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.05070303938677372</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E330" t="n">
+        <v>830949.5652773816</v>
+      </c>
+      <c r="F330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G330" t="n">
+        <v>56.66792064045012</v>
+      </c>
+      <c r="H330" t="n">
+        <v>3381.517888505954</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.05023074068590787</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E331" t="n">
+        <v>775139.5198483038</v>
+      </c>
+      <c r="F331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G331" t="n">
+        <v>56.66460683882693</v>
+      </c>
+      <c r="H331" t="n">
+        <v>3613.655720843717</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.04978517723477051</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1116200.908581557</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G332" t="n">
+        <v>56.6818602863573</v>
+      </c>
+      <c r="H332" t="n">
+        <v>2536.951607116792</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.05185344913590852</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1165809.837851849</v>
+      </c>
+      <c r="F333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G333" t="n">
+        <v>56.68368634814443</v>
+      </c>
+      <c r="H333" t="n">
+        <v>2436.704740125633</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.05204629675983713</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E334" t="n">
+        <v>657318.3128313615</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G334" t="n">
+        <v>56.6574701898281</v>
+      </c>
+      <c r="H334" t="n">
+        <v>4207.403072223454</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.04864736890561248</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E335" t="n">
+        <v>843351.7975949544</v>
+      </c>
+      <c r="F335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G335" t="n">
+        <v>56.66902534443408</v>
+      </c>
+      <c r="H335" t="n">
+        <v>3333.081160937221</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.0503243609717219</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E336" t="n">
+        <v>824748.4491185951</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G336" t="n">
+        <v>56.66758769817457</v>
+      </c>
+      <c r="H336" t="n">
+        <v>3405.945475402889</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.05018388045372196</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E337" t="n">
+        <v>651117.1966725751</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G337" t="n">
+        <v>56.65688506675941</v>
+      </c>
+      <c r="H337" t="n">
+        <v>4243.081531815159</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.04857876353665505</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E338" t="n">
+        <v>892960.7268652457</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G338" t="n">
+        <v>56.67238450578943</v>
+      </c>
+      <c r="H338" t="n">
+        <v>3157.723900864348</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.05066219672156049</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E339" t="n">
+        <v>638714.9643550023</v>
+      </c>
+      <c r="F339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G339" t="n">
+        <v>56.65610576262713</v>
+      </c>
+      <c r="H339" t="n">
+        <v>4316.415709938902</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.0484383466138946</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E340" t="n">
+        <v>806145.1006422358</v>
+      </c>
+      <c r="F340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G340" t="n">
+        <v>56.6670073579557</v>
+      </c>
+      <c r="H340" t="n">
+        <v>3481.620620425673</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.05003933894465223</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E341" t="n">
+        <v>911564.0753416051</v>
+      </c>
+      <c r="F341" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G341" t="n">
+        <v>56.67331408462382</v>
+      </c>
+      <c r="H341" t="n">
+        <v>3094.744417864298</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.05078309334219451</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E342" t="n">
+        <v>713128.3582604394</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G342" t="n">
+        <v>56.66098680566832</v>
+      </c>
+      <c r="H342" t="n">
+        <v>3906.451490101829</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.04922395314224801</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E343" t="n">
+        <v>750335.055213158</v>
+      </c>
+      <c r="F343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G343" t="n">
+        <v>56.66318868344793</v>
+      </c>
+      <c r="H343" t="n">
+        <v>3725.794949061199</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.04957018651993803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/benchmarks/results/plots/results-TestsvsPlock.xlsx
+++ b/benchmarks/results/plots/results-TestsvsPlock.xlsx
@@ -528,19 +528,19 @@
         <v>2900</v>
       </c>
       <c r="E3" t="n">
-        <v>8681.562622301002</v>
+        <v>1072793.095470052</v>
       </c>
       <c r="F3" t="n">
         <v>-1</v>
       </c>
       <c r="G3" t="n">
-        <v>56.65277895042409</v>
+        <v>56.5662210845945</v>
       </c>
       <c r="H3" t="n">
-        <v>21071.88831609207</v>
+        <v>2640.981414812573</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0154716136427134</v>
+        <v>51.65412374064174</v>
       </c>
     </row>
     <row r="4">
@@ -559,19 +559,19 @@
         <v>2900</v>
       </c>
       <c r="E4" t="n">
-        <v>43407.81311150501</v>
+        <v>8681.562622301002</v>
       </c>
       <c r="F4" t="n">
         <v>-1</v>
       </c>
       <c r="G4" t="n">
-        <v>56.64665736623851</v>
+        <v>54.66430392406129</v>
       </c>
       <c r="H4" t="n">
-        <v>18605.92099079655</v>
+        <v>21071.88831609212</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02035690846356059</v>
+        <v>15.47161364271328</v>
       </c>
     </row>
     <row r="5">
@@ -590,19 +590,19 @@
         <v>2900</v>
       </c>
       <c r="E5" t="n">
-        <v>99837.97015646154</v>
+        <v>1178212.070169422</v>
       </c>
       <c r="F5" t="n">
         <v>-1</v>
       </c>
       <c r="G5" t="n">
-        <v>56.64014733928982</v>
+        <v>56.5796619511644</v>
       </c>
       <c r="H5" t="n">
-        <v>15120.71908113166</v>
+        <v>2417.163433815812</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02726851069075003</v>
+        <v>52.08385519669353</v>
       </c>
     </row>
     <row r="6">
@@ -621,19 +621,19 @@
         <v>2900</v>
       </c>
       <c r="E6" t="n">
-        <v>602634.5925821449</v>
+        <v>1172010.954010635</v>
       </c>
       <c r="F6" t="n">
         <v>-1</v>
       </c>
       <c r="G6" t="n">
-        <v>56.65383577337516</v>
+        <v>56.57922820607043</v>
       </c>
       <c r="H6" t="n">
-        <v>4542.33746661174</v>
+        <v>2424.184287366101</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04800588049319458</v>
+        <v>52.07036300450741</v>
       </c>
     </row>
     <row r="7">
@@ -652,19 +652,19 @@
         <v>2900</v>
       </c>
       <c r="E7" t="n">
-        <v>208357.5029352241</v>
+        <v>43407.81311150501</v>
       </c>
       <c r="F7" t="n">
         <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>56.63518528952051</v>
+        <v>54.96301911927409</v>
       </c>
       <c r="H7" t="n">
-        <v>9904.305571537907</v>
+        <v>18605.92099079655</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03761631832729525</v>
+        <v>20.35690846356056</v>
       </c>
     </row>
     <row r="8">
@@ -683,19 +683,19 @@
         <v>2900</v>
       </c>
       <c r="E8" t="n">
-        <v>613910.4997198565</v>
+        <v>99837.97015646154</v>
       </c>
       <c r="F8" t="n">
         <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>56.65466828341747</v>
+        <v>55.3923148267795</v>
       </c>
       <c r="H8" t="n">
-        <v>4469.789097130009</v>
+        <v>15120.71908113168</v>
       </c>
       <c r="I8" t="n">
-        <v>0.048145004952901</v>
+        <v>27.26851069075001</v>
       </c>
     </row>
     <row r="9">
@@ -714,19 +714,19 @@
         <v>2900</v>
       </c>
       <c r="E9" t="n">
-        <v>591358.6854444332</v>
+        <v>602634.5925821449</v>
       </c>
       <c r="F9" t="n">
         <v>-1</v>
       </c>
       <c r="G9" t="n">
-        <v>56.65310508836782</v>
+        <v>56.45440787772525</v>
       </c>
       <c r="H9" t="n">
-        <v>4616.851922794632</v>
+        <v>4542.337466611736</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04786326008503989</v>
+        <v>48.00588049319455</v>
       </c>
     </row>
     <row r="10">
@@ -745,19 +745,19 @@
         <v>2900</v>
       </c>
       <c r="E10" t="n">
-        <v>444771.8926541818</v>
+        <v>781340.6360070902</v>
       </c>
       <c r="F10" t="n">
         <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>56.64199461978409</v>
+        <v>56.50865057216924</v>
       </c>
       <c r="H10" t="n">
-        <v>5772.27056873466</v>
+        <v>3586.763275745398</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04565199975360756</v>
+        <v>49.83744483730167</v>
       </c>
     </row>
     <row r="11">
@@ -776,19 +776,19 @@
         <v>2900</v>
       </c>
       <c r="E11" t="n">
-        <v>186653.5963794716</v>
+        <v>208357.5029352241</v>
       </c>
       <c r="F11" t="n">
         <v>-1</v>
       </c>
       <c r="G11" t="n">
-        <v>56.63537675055842</v>
+        <v>56.03784633153553</v>
       </c>
       <c r="H11" t="n">
-        <v>10794.06944394864</v>
+        <v>9904.305571537891</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03585145808750737</v>
+        <v>37.61631832729528</v>
       </c>
     </row>
     <row r="12">
@@ -807,19 +807,19 @@
         <v>2900</v>
       </c>
       <c r="E12" t="n">
-        <v>60770.93835610701</v>
+        <v>613910.4997198565</v>
       </c>
       <c r="F12" t="n">
         <v>-1</v>
       </c>
       <c r="G12" t="n">
-        <v>56.64428615501865</v>
+        <v>56.45859588879159</v>
       </c>
       <c r="H12" t="n">
-        <v>17473.63138094206</v>
+        <v>4469.789097130015</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02260220611301275</v>
+        <v>48.14500495290097</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>2900</v>
       </c>
       <c r="E13" t="n">
-        <v>595117.3211570038</v>
+        <v>591358.6854444332</v>
       </c>
       <c r="F13" t="n">
         <v>-1</v>
       </c>
       <c r="G13" t="n">
-        <v>56.65334439266314</v>
+        <v>56.45038074411963</v>
       </c>
       <c r="H13" t="n">
-        <v>4591.820046642306</v>
+        <v>4616.851922794631</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04791115760129505</v>
+        <v>47.86326008503987</v>
       </c>
     </row>
     <row r="14">
@@ -869,19 +869,19 @@
         <v>2900</v>
       </c>
       <c r="E14" t="n">
-        <v>433495.9855164701</v>
+        <v>444771.8926541818</v>
       </c>
       <c r="F14" t="n">
         <v>-1</v>
       </c>
       <c r="G14" t="n">
-        <v>56.64174062967662</v>
+        <v>56.38814305633142</v>
       </c>
       <c r="H14" t="n">
-        <v>5875.883715062229</v>
+        <v>5772.270568734659</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04545482358170701</v>
+        <v>45.65199975360753</v>
       </c>
     </row>
     <row r="15">
@@ -900,19 +900,19 @@
         <v>2900</v>
       </c>
       <c r="E15" t="n">
-        <v>147586.564579117</v>
+        <v>186653.5963794716</v>
       </c>
       <c r="F15" t="n">
         <v>-1</v>
       </c>
       <c r="G15" t="n">
-        <v>56.63693625494984</v>
+        <v>55.92790374088381</v>
       </c>
       <c r="H15" t="n">
-        <v>12589.1586011019</v>
+        <v>10794.06944394864</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03229160989534534</v>
+        <v>35.85145808750737</v>
       </c>
     </row>
     <row r="16">
@@ -931,19 +931,19 @@
         <v>2900</v>
       </c>
       <c r="E16" t="n">
-        <v>493634.1569175989</v>
+        <v>942569.6561355372</v>
       </c>
       <c r="F16" t="n">
         <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>56.64568466097759</v>
+        <v>56.54439516723339</v>
       </c>
       <c r="H16" t="n">
-        <v>5348.199744521512</v>
+        <v>2993.547237371526</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04646317845869853</v>
+        <v>50.97654249276336</v>
       </c>
     </row>
     <row r="17">
@@ -962,19 +962,19 @@
         <v>2900</v>
       </c>
       <c r="E17" t="n">
-        <v>21703.90655575251</v>
+        <v>60770.93835610701</v>
       </c>
       <c r="F17" t="n">
         <v>-1</v>
       </c>
       <c r="G17" t="n">
-        <v>56.65018206968278</v>
+        <v>55.10231301044301</v>
       </c>
       <c r="H17" t="n">
-        <v>20111.12052334332</v>
+        <v>17473.63138094208</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01737414591670157</v>
+        <v>22.60220611301271</v>
       </c>
     </row>
     <row r="18">
@@ -993,19 +993,19 @@
         <v>2900</v>
       </c>
       <c r="E18" t="n">
-        <v>256106.0973578796</v>
+        <v>595117.3211570038</v>
       </c>
       <c r="F18" t="n">
         <v>-1</v>
       </c>
       <c r="G18" t="n">
-        <v>56.63496541171249</v>
+        <v>56.45172018477748</v>
       </c>
       <c r="H18" t="n">
-        <v>8252.920698187489</v>
+        <v>4591.820046642324</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04088277497581509</v>
+        <v>47.91115760129502</v>
       </c>
     </row>
     <row r="19">
@@ -1024,19 +1024,19 @@
         <v>2900</v>
       </c>
       <c r="E19" t="n">
-        <v>399351.8806258462</v>
+        <v>433495.9855164701</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
       </c>
       <c r="G19" t="n">
-        <v>56.63954841334495</v>
+        <v>56.38368231136258</v>
       </c>
       <c r="H19" t="n">
-        <v>6209.970887120581</v>
+        <v>5875.883715062217</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04481661084232773</v>
+        <v>45.45482358170705</v>
       </c>
     </row>
     <row r="20">
@@ -1055,19 +1055,19 @@
         <v>2900</v>
       </c>
       <c r="E20" t="n">
-        <v>151927.3458902675</v>
+        <v>147586.564579117</v>
       </c>
       <c r="F20" t="n">
         <v>-1</v>
       </c>
       <c r="G20" t="n">
-        <v>56.6367543748948</v>
+        <v>55.70683431920267</v>
       </c>
       <c r="H20" t="n">
-        <v>12378.5958566267</v>
+        <v>12589.15860110183</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03270935188661677</v>
+        <v>32.29160989534542</v>
       </c>
     </row>
     <row r="21">
@@ -1086,19 +1086,19 @@
         <v>2900</v>
       </c>
       <c r="E21" t="n">
-        <v>117201.0954010635</v>
+        <v>954971.8884531101</v>
       </c>
       <c r="F21" t="n">
         <v>-1</v>
       </c>
       <c r="G21" t="n">
-        <v>56.63881660064018</v>
+        <v>56.54669341189184</v>
       </c>
       <c r="H21" t="n">
-        <v>14156.61198853255</v>
+        <v>2955.220046466069</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02918185490548394</v>
+        <v>51.05012745363722</v>
       </c>
     </row>
     <row r="22">
@@ -1117,19 +1117,19 @@
         <v>2900</v>
       </c>
       <c r="E22" t="n">
-        <v>364625.6301366421</v>
+        <v>493634.1569175989</v>
       </c>
       <c r="F22" t="n">
         <v>-1</v>
       </c>
       <c r="G22" t="n">
-        <v>56.63774460290058</v>
+        <v>56.41057059582094</v>
       </c>
       <c r="H22" t="n">
-        <v>6579.721795547889</v>
+        <v>5348.199744521515</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04411114535592037</v>
+        <v>46.46317845869854</v>
       </c>
     </row>
     <row r="23">
@@ -1148,19 +1148,19 @@
         <v>2900</v>
       </c>
       <c r="E23" t="n">
-        <v>269128.4412913311</v>
+        <v>21703.90655575251</v>
       </c>
       <c r="F23" t="n">
         <v>-1</v>
       </c>
       <c r="G23" t="n">
-        <v>56.63527057690612</v>
+        <v>54.77985470077476</v>
       </c>
       <c r="H23" t="n">
-        <v>7885.728945452487</v>
+        <v>20111.12052334333</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04160690249038908</v>
+        <v>17.37414591670155</v>
       </c>
     </row>
     <row r="24">
@@ -1179,19 +1179,19 @@
         <v>2900</v>
       </c>
       <c r="E24" t="n">
-        <v>91156.40753416052</v>
+        <v>256106.0973578796</v>
       </c>
       <c r="F24" t="n">
         <v>-1</v>
       </c>
       <c r="G24" t="n">
-        <v>56.64098111152899</v>
+        <v>56.23280720778996</v>
       </c>
       <c r="H24" t="n">
-        <v>15620.72503171062</v>
+        <v>8252.920698187494</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02627703091906906</v>
+        <v>40.88277497581509</v>
       </c>
     </row>
     <row r="25">
@@ -1210,19 +1210,19 @@
         <v>2900</v>
       </c>
       <c r="E25" t="n">
-        <v>290832.3478470836</v>
+        <v>1109999.792422771</v>
       </c>
       <c r="F25" t="n">
         <v>-1</v>
       </c>
       <c r="G25" t="n">
-        <v>56.63501868359233</v>
+        <v>56.5716184710234</v>
       </c>
       <c r="H25" t="n">
-        <v>7454.105652089931</v>
+        <v>2553.495885307552</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04244513380011323</v>
+        <v>51.82223996890178</v>
       </c>
     </row>
     <row r="26">
@@ -1241,19 +1241,19 @@
         <v>2900</v>
       </c>
       <c r="E26" t="n">
-        <v>546255.0568935866</v>
+        <v>669720.5451489342</v>
       </c>
       <c r="F26" t="n">
         <v>-1</v>
       </c>
       <c r="G26" t="n">
-        <v>56.65003657436822</v>
+        <v>56.47693169106009</v>
       </c>
       <c r="H26" t="n">
-        <v>4933.198788824361</v>
+        <v>4137.208664488033</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04725788427612698</v>
+        <v>48.78192422973258</v>
       </c>
     </row>
     <row r="27">
@@ -1272,19 +1272,19 @@
         <v>2900</v>
       </c>
       <c r="E27" t="n">
-        <v>121541.876712214</v>
+        <v>399351.8806258462</v>
       </c>
       <c r="F27" t="n">
         <v>-1</v>
       </c>
       <c r="G27" t="n">
-        <v>56.63845789469458</v>
+        <v>56.36685550878398</v>
       </c>
       <c r="H27" t="n">
-        <v>13923.65553483765</v>
+        <v>6209.970887120583</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02964393823696047</v>
+        <v>44.81661084232772</v>
       </c>
     </row>
     <row r="28">
@@ -1303,19 +1303,19 @@
         <v>2900</v>
       </c>
       <c r="E28" t="n">
-        <v>527461.8783307339</v>
+        <v>1066591.979311266</v>
       </c>
       <c r="F28" t="n">
         <v>-1</v>
       </c>
       <c r="G28" t="n">
-        <v>56.64907679208507</v>
+        <v>56.56528226826906</v>
       </c>
       <c r="H28" t="n">
-        <v>5076.557679169104</v>
+        <v>2656.237800050661</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04698420101237791</v>
+        <v>51.62480878770813</v>
       </c>
     </row>
     <row r="29">
@@ -1334,19 +1334,19 @@
         <v>2900</v>
       </c>
       <c r="E29" t="n">
-        <v>78134.06360070902</v>
+        <v>151927.3458902675</v>
       </c>
       <c r="F29" t="n">
         <v>-1</v>
       </c>
       <c r="G29" t="n">
-        <v>56.64228315502817</v>
+        <v>55.73293981804338</v>
       </c>
       <c r="H29" t="n">
-        <v>16394.9499167188</v>
+        <v>12378.59585662674</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02474143489034199</v>
+        <v>32.70935188661669</v>
       </c>
     </row>
     <row r="30">
@@ -1365,19 +1365,19 @@
         <v>2900</v>
       </c>
       <c r="E30" t="n">
-        <v>238742.9721132776</v>
+        <v>117201.0954010635</v>
       </c>
       <c r="F30" t="n">
         <v>-1</v>
       </c>
       <c r="G30" t="n">
-        <v>56.6348602459392</v>
+        <v>55.51246660847307</v>
       </c>
       <c r="H30" t="n">
-        <v>8803.463517941578</v>
+        <v>14156.61198853257</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03979509840990093</v>
+        <v>29.18185490548393</v>
       </c>
     </row>
     <row r="31">
@@ -1396,19 +1396,19 @@
         <v>2900</v>
       </c>
       <c r="E31" t="n">
-        <v>325558.5983362876</v>
+        <v>1054189.746993693</v>
       </c>
       <c r="F31" t="n">
         <v>-1</v>
       </c>
       <c r="G31" t="n">
-        <v>56.63589132900997</v>
+        <v>56.56337161490647</v>
       </c>
       <c r="H31" t="n">
-        <v>7024.222349275336</v>
+        <v>2687.340671586911</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04326370509169346</v>
+        <v>51.56504830177739</v>
       </c>
     </row>
     <row r="32">
@@ -1427,19 +1427,19 @@
         <v>2900</v>
       </c>
       <c r="E32" t="n">
-        <v>429737.3498038996</v>
+        <v>364625.6301366421</v>
       </c>
       <c r="F32" t="n">
         <v>-1</v>
       </c>
       <c r="G32" t="n">
-        <v>56.64149026409858</v>
+        <v>56.34910877913236</v>
       </c>
       <c r="H32" t="n">
-        <v>5911.680890705578</v>
+        <v>6579.721795547893</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04538654658017104</v>
+        <v>44.11114535592036</v>
       </c>
     </row>
     <row r="33">
@@ -1458,19 +1458,19 @@
         <v>2900</v>
       </c>
       <c r="E33" t="n">
-        <v>412374.2245592977</v>
+        <v>269128.4412913311</v>
       </c>
       <c r="F33" t="n">
         <v>-1</v>
       </c>
       <c r="G33" t="n">
-        <v>56.64027236178914</v>
+        <v>56.27397587107687</v>
       </c>
       <c r="H33" t="n">
-        <v>6079.588184795623</v>
+        <v>7885.728945452477</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04506546957413905</v>
+        <v>41.60690249038912</v>
       </c>
     </row>
     <row r="34">
@@ -1489,19 +1489,19 @@
         <v>2900</v>
       </c>
       <c r="E34" t="n">
-        <v>471082.3426421757</v>
+        <v>91156.40753416052</v>
       </c>
       <c r="F34" t="n">
         <v>-1</v>
       </c>
       <c r="G34" t="n">
-        <v>56.64395141235759</v>
+        <v>55.33082187288679</v>
       </c>
       <c r="H34" t="n">
-        <v>5537.016498482042</v>
+        <v>15620.72503171058</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04610204017887129</v>
+        <v>26.27703091906915</v>
       </c>
     </row>
     <row r="35">
@@ -1520,19 +1520,19 @@
         <v>2900</v>
       </c>
       <c r="E35" t="n">
-        <v>456047.7997918934</v>
+        <v>917765.1915003917</v>
       </c>
       <c r="F35" t="n">
         <v>-1</v>
       </c>
       <c r="G35" t="n">
-        <v>56.64370773884105</v>
+        <v>56.54039085024999</v>
       </c>
       <c r="H35" t="n">
-        <v>5670.96366250822</v>
+        <v>3074.311121710346</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04584701232607179</v>
+        <v>50.82232126795815</v>
       </c>
     </row>
     <row r="36">
@@ -1551,19 +1551,19 @@
         <v>2900</v>
       </c>
       <c r="E36" t="n">
-        <v>217039.0655575251</v>
+        <v>290832.3478470836</v>
       </c>
       <c r="F36" t="n">
         <v>-1</v>
       </c>
       <c r="G36" t="n">
-        <v>56.63497027987367</v>
+        <v>56.30940878887633</v>
       </c>
       <c r="H36" t="n">
-        <v>9572.024553583256</v>
+        <v>7454.105652089925</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03827428778960452</v>
+        <v>42.44513380011319</v>
       </c>
     </row>
     <row r="37">
@@ -1582,19 +1582,19 @@
         <v>2900</v>
       </c>
       <c r="E37" t="n">
-        <v>408033.4432481471</v>
+        <v>675921.6613077208</v>
       </c>
       <c r="F37" t="n">
         <v>-1</v>
       </c>
       <c r="G37" t="n">
-        <v>56.63998011169602</v>
+        <v>56.47879619269935</v>
       </c>
       <c r="H37" t="n">
-        <v>6122.603420731158</v>
+        <v>4102.924508474821</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04498328307025926</v>
+        <v>48.84755559877484</v>
       </c>
     </row>
     <row r="38">
@@ -1613,19 +1613,19 @@
         <v>2900</v>
       </c>
       <c r="E38" t="n">
-        <v>368966.4114477926</v>
+        <v>546255.0568935866</v>
       </c>
       <c r="F38" t="n">
         <v>-1</v>
       </c>
       <c r="G38" t="n">
-        <v>56.63787981492261</v>
+        <v>56.43339476319902</v>
       </c>
       <c r="H38" t="n">
-        <v>6532.359196344063</v>
+        <v>4933.198788824362</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04420135121860543</v>
+        <v>47.25788427612697</v>
       </c>
     </row>
     <row r="39">
@@ -1644,19 +1644,19 @@
         <v>2900</v>
       </c>
       <c r="E39" t="n">
-        <v>355944.0675143411</v>
+        <v>905362.9591828187</v>
       </c>
       <c r="F39" t="n">
         <v>-1</v>
       </c>
       <c r="G39" t="n">
-        <v>56.63710810912958</v>
+        <v>56.53793018933577</v>
       </c>
       <c r="H39" t="n">
-        <v>6674.377494870711</v>
+        <v>3115.454743480707</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04393043824642096</v>
+        <v>50.74333546601672</v>
       </c>
     </row>
     <row r="40">
@@ -1675,19 +1675,19 @@
         <v>2900</v>
       </c>
       <c r="E40" t="n">
-        <v>519944.6069055928</v>
+        <v>121541.876712214</v>
       </c>
       <c r="F40" t="n">
         <v>-1</v>
       </c>
       <c r="G40" t="n">
-        <v>56.6484287166425</v>
+        <v>55.54126223446508</v>
       </c>
       <c r="H40" t="n">
-        <v>5134.54386671782</v>
+        <v>13923.65553483768</v>
       </c>
       <c r="I40" t="n">
-        <v>0.04687298847566794</v>
+        <v>29.64393823696044</v>
       </c>
     </row>
     <row r="41">
@@ -1706,19 +1706,19 @@
         <v>2900</v>
       </c>
       <c r="E41" t="n">
-        <v>504910.0640553105</v>
+        <v>527461.8783307339</v>
       </c>
       <c r="F41" t="n">
         <v>-1</v>
       </c>
       <c r="G41" t="n">
-        <v>56.64732603104776</v>
+        <v>56.42635208258501</v>
       </c>
       <c r="H41" t="n">
-        <v>5255.339231464993</v>
+        <v>5076.557679169105</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04664185936609341</v>
+        <v>46.98420101237792</v>
       </c>
     </row>
     <row r="42">
@@ -1737,19 +1737,19 @@
         <v>2900</v>
       </c>
       <c r="E42" t="n">
-        <v>606393.2282947154</v>
+        <v>1091396.443946412</v>
       </c>
       <c r="F42" t="n">
         <v>-1</v>
       </c>
       <c r="G42" t="n">
-        <v>56.65419193296747</v>
+        <v>56.56895930927408</v>
       </c>
       <c r="H42" t="n">
-        <v>4518.004640517972</v>
+        <v>2596.488440837134</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04805272843700798</v>
+        <v>51.73961673900639</v>
       </c>
     </row>
     <row r="43">
@@ -1768,19 +1768,19 @@
         <v>2900</v>
       </c>
       <c r="E43" t="n">
-        <v>583841.4140192921</v>
+        <v>78134.06360070902</v>
       </c>
       <c r="F43" t="n">
         <v>-1</v>
       </c>
       <c r="G43" t="n">
-        <v>56.65256434290915</v>
+        <v>55.235246580368</v>
       </c>
       <c r="H43" t="n">
-        <v>4667.196150423522</v>
+        <v>16394.94991671885</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0477668878448773</v>
+        <v>24.7414348903419</v>
       </c>
     </row>
     <row r="44">
@@ -1799,19 +1799,19 @@
         <v>2900</v>
       </c>
       <c r="E44" t="n">
-        <v>204016.7216240735</v>
+        <v>238742.9721132776</v>
       </c>
       <c r="F44" t="n">
         <v>-1</v>
       </c>
       <c r="G44" t="n">
-        <v>56.6352260961826</v>
+        <v>56.16911358529163</v>
       </c>
       <c r="H44" t="n">
-        <v>10074.71151491036</v>
+        <v>8803.463517941571</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03727863753260494</v>
+        <v>39.79509840990092</v>
       </c>
     </row>
     <row r="45">
@@ -1830,19 +1830,19 @@
         <v>2900</v>
       </c>
       <c r="E45" t="n">
-        <v>386329.5366923946</v>
+        <v>861955.1460713138</v>
       </c>
       <c r="F45" t="n">
         <v>-1</v>
       </c>
       <c r="G45" t="n">
-        <v>56.63871758883658</v>
+        <v>56.52847657344596</v>
       </c>
       <c r="H45" t="n">
-        <v>6346.369068909563</v>
+        <v>3267.557709748641</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04455609675427639</v>
+        <v>50.45097770986241</v>
       </c>
     </row>
     <row r="46">
@@ -1861,19 +1861,19 @@
         <v>2900</v>
       </c>
       <c r="E46" t="n">
-        <v>338580.9422697391</v>
+        <v>936368.5399767508</v>
       </c>
       <c r="F46" t="n">
         <v>-1</v>
       </c>
       <c r="G46" t="n">
-        <v>56.63661475280666</v>
+        <v>56.54287600438875</v>
       </c>
       <c r="H46" t="n">
-        <v>6874.724395426345</v>
+        <v>3013.721688961363</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04354896790728449</v>
+        <v>50.93749982842253</v>
       </c>
     </row>
     <row r="47">
@@ -1892,19 +1892,19 @@
         <v>2900</v>
       </c>
       <c r="E47" t="n">
-        <v>39067.03180035451</v>
+        <v>768938.4036895173</v>
       </c>
       <c r="F47" t="n">
         <v>-1</v>
       </c>
       <c r="G47" t="n">
-        <v>56.64731060943862</v>
+        <v>56.50482507930145</v>
       </c>
       <c r="H47" t="n">
-        <v>18898.59036948525</v>
+        <v>3641.102858139989</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01977689187907042</v>
+        <v>49.7325503566497</v>
       </c>
     </row>
     <row r="48">
@@ -1923,19 +1923,19 @@
         <v>2900</v>
       </c>
       <c r="E48" t="n">
-        <v>321217.8170251371</v>
+        <v>325558.5983362876</v>
       </c>
       <c r="F48" t="n">
         <v>-1</v>
       </c>
       <c r="G48" t="n">
-        <v>56.63586341420073</v>
+        <v>56.32841798656162</v>
       </c>
       <c r="H48" t="n">
-        <v>7078.54861777183</v>
+        <v>7024.222349275339</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04316041175116372</v>
+        <v>43.26370509169342</v>
       </c>
     </row>
     <row r="49">
@@ -1954,19 +1954,19 @@
         <v>2900</v>
       </c>
       <c r="E49" t="n">
-        <v>65111.71966725752</v>
+        <v>429737.3498038996</v>
       </c>
       <c r="F49" t="n">
         <v>-1</v>
       </c>
       <c r="G49" t="n">
-        <v>56.64374093898381</v>
+        <v>56.38198632036023</v>
       </c>
       <c r="H49" t="n">
-        <v>17198.46069708515</v>
+        <v>5911.680890705579</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02314775549262205</v>
+        <v>45.38654658017106</v>
       </c>
     </row>
     <row r="50">
@@ -1985,19 +1985,19 @@
         <v>2900</v>
       </c>
       <c r="E50" t="n">
-        <v>56430.15704495652</v>
+        <v>412374.2245592977</v>
       </c>
       <c r="F50" t="n">
         <v>-1</v>
       </c>
       <c r="G50" t="n">
-        <v>56.64480449705538</v>
+        <v>56.37320873783192</v>
       </c>
       <c r="H50" t="n">
-        <v>17751.23135554368</v>
+        <v>6079.588184795614</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02205132294634944</v>
+        <v>45.06546957413904</v>
       </c>
     </row>
     <row r="51">
@@ -2016,19 +2016,19 @@
         <v>2900</v>
       </c>
       <c r="E51" t="n">
-        <v>523703.2426181633</v>
+        <v>626312.7320374293</v>
       </c>
       <c r="F51" t="n">
         <v>-1</v>
       </c>
       <c r="G51" t="n">
-        <v>56.64883951513136</v>
+        <v>56.46260039704329</v>
       </c>
       <c r="H51" t="n">
-        <v>5105.875891217728</v>
+        <v>4391.91422458162</v>
       </c>
       <c r="I51" t="n">
-        <v>0.04692815507876878</v>
+        <v>48.29385294716137</v>
       </c>
     </row>
     <row r="52">
@@ -2047,19 +2047,19 @@
         <v>2900</v>
       </c>
       <c r="E52" t="n">
-        <v>86815.62622301003</v>
+        <v>1103798.676263984</v>
       </c>
       <c r="F52" t="n">
         <v>-1</v>
       </c>
       <c r="G52" t="n">
-        <v>56.64140238054899</v>
+        <v>56.57074227526905</v>
       </c>
       <c r="H52" t="n">
-        <v>15876.22678665778</v>
+        <v>2567.646670430126</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02577037814132742</v>
+        <v>51.79504399913254</v>
       </c>
     </row>
     <row r="53">
@@ -2078,19 +2078,19 @@
         <v>2900</v>
       </c>
       <c r="E53" t="n">
-        <v>282150.7852247825</v>
+        <v>471082.3426421757</v>
       </c>
       <c r="F53" t="n">
         <v>-1</v>
       </c>
       <c r="G53" t="n">
-        <v>56.63498570910509</v>
+        <v>56.40062232074773</v>
       </c>
       <c r="H53" t="n">
-        <v>7574.775147996815</v>
+        <v>5537.016498482051</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04221532771194048</v>
+        <v>46.10204017887129</v>
       </c>
     </row>
     <row r="54">
@@ -2109,19 +2109,19 @@
         <v>2900</v>
       </c>
       <c r="E54" t="n">
-        <v>572565.5068815805</v>
+        <v>632513.8481962158</v>
       </c>
       <c r="F54" t="n">
         <v>-1</v>
       </c>
       <c r="G54" t="n">
-        <v>56.65146989596736</v>
+        <v>56.46457215788713</v>
       </c>
       <c r="H54" t="n">
-        <v>4745.201956651674</v>
+        <v>4353.855806272697</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04761705639113646</v>
+        <v>48.36661152022651</v>
       </c>
     </row>
     <row r="55">
@@ -2140,19 +2140,19 @@
         <v>2900</v>
       </c>
       <c r="E55" t="n">
-        <v>437254.6212290407</v>
+        <v>456047.7997918934</v>
       </c>
       <c r="F55" t="n">
         <v>-1</v>
       </c>
       <c r="G55" t="n">
-        <v>56.64185554249474</v>
+        <v>56.39472969659947</v>
       </c>
       <c r="H55" t="n">
-        <v>5840.689709357385</v>
+        <v>5670.963662508234</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04552196874077655</v>
+        <v>45.84701232607178</v>
       </c>
     </row>
     <row r="56">
@@ -2171,19 +2171,19 @@
         <v>2900</v>
       </c>
       <c r="E56" t="n">
-        <v>390670.3180035451</v>
+        <v>992178.5854058288</v>
       </c>
       <c r="F56" t="n">
         <v>-1</v>
       </c>
       <c r="G56" t="n">
-        <v>56.63890935698994</v>
+        <v>56.55379452372291</v>
       </c>
       <c r="H56" t="n">
-        <v>6301.218247875288</v>
+        <v>2849.45433517788</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04464218710193522</v>
+        <v>51.25394765882731</v>
       </c>
     </row>
     <row r="57">
@@ -2202,19 +2202,19 @@
         <v>2900</v>
       </c>
       <c r="E57" t="n">
-        <v>212698.2842463746</v>
+        <v>1153407.605534276</v>
       </c>
       <c r="F57" t="n">
         <v>-1</v>
       </c>
       <c r="G57" t="n">
-        <v>56.63499943237407</v>
+        <v>56.57678432068221</v>
       </c>
       <c r="H57" t="n">
-        <v>9735.85554633531</v>
+        <v>2462.096520492428</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03794976681825086</v>
+        <v>51.99740420424754</v>
       </c>
     </row>
     <row r="58">
@@ -2233,19 +2233,19 @@
         <v>2900</v>
       </c>
       <c r="E58" t="n">
-        <v>247424.5347355785</v>
+        <v>948770.7722943235</v>
       </c>
       <c r="F58" t="n">
         <v>-1</v>
       </c>
       <c r="G58" t="n">
-        <v>56.63484455060964</v>
+        <v>56.54555109836035</v>
       </c>
       <c r="H58" t="n">
-        <v>8521.875099516865</v>
+        <v>2974.256428905167</v>
       </c>
       <c r="I58" t="n">
-        <v>0.04035153397899718</v>
+        <v>51.01357839203354</v>
       </c>
     </row>
     <row r="59">
@@ -2264,19 +2264,19 @@
         <v>2900</v>
       </c>
       <c r="E59" t="n">
-        <v>225720.6281798261</v>
+        <v>961173.0046118966</v>
       </c>
       <c r="F59" t="n">
         <v>-1</v>
       </c>
       <c r="G59" t="n">
-        <v>56.6348800129082</v>
+        <v>56.54833609013918</v>
       </c>
       <c r="H59" t="n">
-        <v>9254.027271241588</v>
+        <v>2937.573280473096</v>
       </c>
       <c r="I59" t="n">
-        <v>0.03890369163622652</v>
+        <v>51.08459226076333</v>
       </c>
     </row>
     <row r="60">
@@ -2295,19 +2295,19 @@
         <v>2900</v>
       </c>
       <c r="E60" t="n">
-        <v>52089.37573380602</v>
+        <v>1029385.282358547</v>
       </c>
       <c r="F60" t="n">
         <v>-1</v>
       </c>
       <c r="G60" t="n">
-        <v>56.64541868459165</v>
+        <v>56.55953197725767</v>
       </c>
       <c r="H60" t="n">
-        <v>18031.55167042391</v>
+        <v>2751.813183180002</v>
       </c>
       <c r="I60" t="n">
-        <v>0.021495678603099</v>
+        <v>51.44129291948224</v>
       </c>
     </row>
     <row r="61">
@@ -2326,19 +2326,19 @@
         <v>2900</v>
       </c>
       <c r="E61" t="n">
-        <v>277810.0039136321</v>
+        <v>688323.8936252937</v>
       </c>
       <c r="F61" t="n">
         <v>-1</v>
       </c>
       <c r="G61" t="n">
-        <v>56.63517932921028</v>
+        <v>56.48246372785935</v>
       </c>
       <c r="H61" t="n">
-        <v>7672.817602300387</v>
+        <v>4035.306151950778</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04202420777846248</v>
+        <v>48.97698999757927</v>
       </c>
     </row>
     <row r="62">
@@ -2357,19 +2357,19 @@
         <v>2900</v>
       </c>
       <c r="E62" t="n">
-        <v>69452.50097840802</v>
+        <v>868156.2622301002</v>
       </c>
       <c r="F62" t="n">
         <v>-1</v>
       </c>
       <c r="G62" t="n">
-        <v>56.64323847769259</v>
+        <v>56.52939032177855</v>
       </c>
       <c r="H62" t="n">
-        <v>16928.06513739502</v>
+        <v>3241.410258382829</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02368405973541245</v>
+        <v>50.50052444958401</v>
       </c>
     </row>
     <row r="63">
@@ -2388,19 +2388,19 @@
         <v>2900</v>
       </c>
       <c r="E63" t="n">
-        <v>260446.8786690301</v>
+        <v>217039.0655575251</v>
       </c>
       <c r="F63" t="n">
         <v>-1</v>
       </c>
       <c r="G63" t="n">
-        <v>56.63513218739048</v>
+        <v>56.07778921607856</v>
       </c>
       <c r="H63" t="n">
-        <v>8124.980857758507</v>
+        <v>9572.024553583269</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04113570977923196</v>
+        <v>38.27428778960453</v>
       </c>
     </row>
     <row r="64">
@@ -2419,19 +2419,19 @@
         <v>2900</v>
       </c>
       <c r="E64" t="n">
-        <v>13022.3439334515</v>
+        <v>408033.4432481471</v>
       </c>
       <c r="F64" t="n">
         <v>-1</v>
       </c>
       <c r="G64" t="n">
-        <v>56.65186876351252</v>
+        <v>56.37102848655331</v>
       </c>
       <c r="H64" t="n">
-        <v>20746.7845652932</v>
+        <v>6122.603420731165</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01611526684802393</v>
+        <v>44.98328307025925</v>
       </c>
     </row>
     <row r="65">
@@ -2450,19 +2450,19 @@
         <v>2900</v>
       </c>
       <c r="E65" t="n">
-        <v>160608.9085125685</v>
+        <v>368966.4114477926</v>
       </c>
       <c r="F65" t="n">
         <v>-1</v>
       </c>
       <c r="G65" t="n">
-        <v>56.63636100106518</v>
+        <v>56.35122250438442</v>
       </c>
       <c r="H65" t="n">
-        <v>11965.05660371316</v>
+        <v>6532.359196344063</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03352993062419937</v>
+        <v>44.20135121860548</v>
       </c>
     </row>
     <row r="66">
@@ -2481,19 +2481,19 @@
         <v>2900</v>
       </c>
       <c r="E66" t="n">
-        <v>553772.3283187277</v>
+        <v>1078994.211628839</v>
       </c>
       <c r="F66" t="n">
         <v>-1</v>
       </c>
       <c r="G66" t="n">
-        <v>56.65041519603803</v>
+        <v>56.56714908091256</v>
       </c>
       <c r="H66" t="n">
-        <v>4879.012005916472</v>
+        <v>2625.917833200136</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04736128343025808</v>
+        <v>51.68306926817522</v>
       </c>
     </row>
     <row r="67">
@@ -2512,19 +2512,19 @@
         <v>2900</v>
       </c>
       <c r="E67" t="n">
-        <v>316877.0357139866</v>
+        <v>355944.0675143411</v>
       </c>
       <c r="F67" t="n">
         <v>-1</v>
       </c>
       <c r="G67" t="n">
-        <v>56.63579794524572</v>
+        <v>56.34445667957196</v>
       </c>
       <c r="H67" t="n">
-        <v>7130.746834670995</v>
+        <v>6674.377494870714</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04306118311742775</v>
+        <v>43.93043824642093</v>
       </c>
     </row>
     <row r="68">
@@ -2543,19 +2543,19 @@
         <v>2900</v>
       </c>
       <c r="E68" t="n">
-        <v>177972.0337571705</v>
+        <v>519944.6069055928</v>
       </c>
       <c r="F68" t="n">
         <v>-1</v>
       </c>
       <c r="G68" t="n">
-        <v>56.63577995666311</v>
+        <v>56.42299104238558</v>
       </c>
       <c r="H68" t="n">
-        <v>11173.65142070466</v>
+        <v>5134.543866717812</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03510006970484931</v>
+        <v>46.87298847566798</v>
       </c>
     </row>
     <row r="69">
@@ -2574,19 +2574,19 @@
         <v>2900</v>
       </c>
       <c r="E69" t="n">
-        <v>550013.6926061572</v>
+        <v>504910.0640553105</v>
       </c>
       <c r="F69" t="n">
         <v>-1</v>
       </c>
       <c r="G69" t="n">
-        <v>56.6501628977081</v>
+        <v>56.41653545266555</v>
       </c>
       <c r="H69" t="n">
-        <v>4906.481607254516</v>
+        <v>5255.339231464987</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04730875467548214</v>
+        <v>46.6418593660934</v>
       </c>
     </row>
     <row r="70">
@@ -2605,19 +2605,19 @@
         <v>2900</v>
       </c>
       <c r="E70" t="n">
-        <v>478599.6140673168</v>
+        <v>606393.2282947154</v>
       </c>
       <c r="F70" t="n">
         <v>-1</v>
       </c>
       <c r="G70" t="n">
-        <v>56.64467724623731</v>
+        <v>56.45599794514638</v>
       </c>
       <c r="H70" t="n">
-        <v>5472.638184937684</v>
+        <v>4518.004640517983</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04622529914784277</v>
+        <v>48.05272843700799</v>
       </c>
     </row>
     <row r="71">
@@ -2636,19 +2636,19 @@
         <v>2900</v>
       </c>
       <c r="E71" t="n">
-        <v>273469.2226024816</v>
+        <v>967374.120770683</v>
       </c>
       <c r="F71" t="n">
         <v>-1</v>
       </c>
       <c r="G71" t="n">
-        <v>56.63532340091306</v>
+        <v>56.5491824929153</v>
       </c>
       <c r="H71" t="n">
-        <v>7774.248444496159</v>
+        <v>2918.76448852135</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04182601008035768</v>
+        <v>51.12042210434328</v>
       </c>
     </row>
     <row r="72">
@@ -2667,19 +2667,19 @@
         <v>2900</v>
       </c>
       <c r="E72" t="n">
-        <v>441013.2569416112</v>
+        <v>583841.4140192921</v>
       </c>
       <c r="F72" t="n">
         <v>-1</v>
       </c>
       <c r="G72" t="n">
-        <v>56.64192778177465</v>
+        <v>56.44764632565175</v>
       </c>
       <c r="H72" t="n">
-        <v>5805.121682838355</v>
+        <v>4667.196150423528</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04558956023991845</v>
+        <v>47.76688784487729</v>
       </c>
     </row>
     <row r="73">
@@ -2698,19 +2698,19 @@
         <v>2900</v>
       </c>
       <c r="E73" t="n">
-        <v>568806.8711690099</v>
+        <v>204016.7216240735</v>
       </c>
       <c r="F73" t="n">
         <v>-1</v>
       </c>
       <c r="G73" t="n">
-        <v>56.65123146463427</v>
+        <v>56.01711232682973</v>
       </c>
       <c r="H73" t="n">
-        <v>4771.4925548505</v>
+        <v>10074.71151491033</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04756676642244771</v>
+        <v>37.278637532605</v>
       </c>
     </row>
     <row r="74">
@@ -2729,19 +2729,19 @@
         <v>2900</v>
       </c>
       <c r="E74" t="n">
-        <v>531220.5140433045</v>
+        <v>979776.3530882559</v>
       </c>
       <c r="F74" t="n">
         <v>-1</v>
       </c>
       <c r="G74" t="n">
-        <v>56.64924693639848</v>
+        <v>56.55037265859593</v>
       </c>
       <c r="H74" t="n">
-        <v>5047.135856154782</v>
+        <v>2891.165325278944</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04704031126915764</v>
+        <v>51.17294537509537</v>
       </c>
     </row>
     <row r="75">
@@ -2760,19 +2760,19 @@
         <v>2900</v>
       </c>
       <c r="E75" t="n">
-        <v>47748.59442265551</v>
+        <v>386329.5366923946</v>
       </c>
       <c r="F75" t="n">
         <v>-1</v>
       </c>
       <c r="G75" t="n">
-        <v>56.6460177267493</v>
+        <v>56.36003542354835</v>
       </c>
       <c r="H75" t="n">
-        <v>18316.4323463924</v>
+        <v>6346.369068909561</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02093071746480603</v>
+        <v>44.5560967542764</v>
       </c>
     </row>
     <row r="76">
@@ -2791,19 +2791,19 @@
         <v>2900</v>
       </c>
       <c r="E76" t="n">
-        <v>486116.8854924578</v>
+        <v>338580.9422697391</v>
       </c>
       <c r="F76" t="n">
         <v>-1</v>
       </c>
       <c r="G76" t="n">
-        <v>56.64512228853592</v>
+        <v>56.33562185864434</v>
       </c>
       <c r="H76" t="n">
-        <v>5408.92865511904</v>
+        <v>6874.724395426357</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04634699972705623</v>
+        <v>43.5489679072845</v>
       </c>
     </row>
     <row r="77">
@@ -2822,19 +2822,19 @@
         <v>2900</v>
       </c>
       <c r="E77" t="n">
-        <v>251765.3160467291</v>
+        <v>1010781.933882188</v>
       </c>
       <c r="F77" t="n">
         <v>-1</v>
       </c>
       <c r="G77" t="n">
-        <v>56.63494398098391</v>
+        <v>56.55602969203939</v>
       </c>
       <c r="H77" t="n">
-        <v>8383.591984918819</v>
+        <v>2802.454146166868</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04062489617481252</v>
+        <v>51.34360089919511</v>
       </c>
     </row>
     <row r="78">
@@ -2853,19 +2853,19 @@
         <v>2900</v>
       </c>
       <c r="E78" t="n">
-        <v>199675.9403129231</v>
+        <v>923966.3076591779</v>
       </c>
       <c r="F78" t="n">
         <v>-1</v>
       </c>
       <c r="G78" t="n">
-        <v>56.63516396202903</v>
+        <v>56.54119133673031</v>
       </c>
       <c r="H78" t="n">
-        <v>10248.6211899374</v>
+        <v>3049.818155163682</v>
       </c>
       <c r="I78" t="n">
-        <v>0.03693330948112054</v>
+        <v>50.86867748430639</v>
       </c>
     </row>
     <row r="79">
@@ -2884,19 +2884,19 @@
         <v>2900</v>
       </c>
       <c r="E79" t="n">
-        <v>377647.9740700936</v>
+        <v>39067.03180035451</v>
       </c>
       <c r="F79" t="n">
         <v>-1</v>
       </c>
       <c r="G79" t="n">
-        <v>56.63858794835394</v>
+        <v>54.9273533846801</v>
       </c>
       <c r="H79" t="n">
-        <v>6436.438402999936</v>
+        <v>18898.59036948527</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0443847903620417</v>
+        <v>19.77689187907042</v>
       </c>
     </row>
     <row r="80">
@@ -2915,19 +2915,19 @@
         <v>2900</v>
       </c>
       <c r="E80" t="n">
-        <v>576324.142594151</v>
+        <v>1023184.166199761</v>
       </c>
       <c r="F80" t="n">
         <v>-1</v>
       </c>
       <c r="G80" t="n">
-        <v>56.6517084147241</v>
+        <v>56.55809795304972</v>
       </c>
       <c r="H80" t="n">
-        <v>4719.142264945681</v>
+        <v>2768.555518396656</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04766690736386733</v>
+        <v>51.40871896377458</v>
       </c>
     </row>
     <row r="81">
@@ -2946,19 +2946,19 @@
         <v>2900</v>
       </c>
       <c r="E81" t="n">
-        <v>125882.6580233645</v>
+        <v>700726.1259428666</v>
       </c>
       <c r="F81" t="n">
         <v>-1</v>
       </c>
       <c r="G81" t="n">
-        <v>56.63826893664192</v>
+        <v>56.48653044609357</v>
       </c>
       <c r="H81" t="n">
-        <v>13693.16673445888</v>
+        <v>3970.119605469153</v>
       </c>
       <c r="I81" t="n">
-        <v>0.03010183370844415</v>
+        <v>49.10230053072181</v>
       </c>
     </row>
     <row r="82">
@@ -2977,19 +2977,19 @@
         <v>2900</v>
       </c>
       <c r="E82" t="n">
-        <v>395011.0993146956</v>
+        <v>321217.8170251371</v>
       </c>
       <c r="F82" t="n">
         <v>-1</v>
       </c>
       <c r="G82" t="n">
-        <v>56.63899125208916</v>
+        <v>56.32616887061136</v>
       </c>
       <c r="H82" t="n">
-        <v>6255.155907667004</v>
+        <v>7078.548617771827</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0447298676051328</v>
+        <v>43.16041175116373</v>
       </c>
     </row>
     <row r="83">
@@ -3008,19 +3008,19 @@
         <v>2900</v>
       </c>
       <c r="E83" t="n">
-        <v>264787.6599801806</v>
+        <v>65111.71966725752</v>
       </c>
       <c r="F83" t="n">
         <v>-1</v>
       </c>
       <c r="G83" t="n">
-        <v>56.63519974601583</v>
+        <v>55.13605826385665</v>
       </c>
       <c r="H83" t="n">
-        <v>8002.852865976402</v>
+        <v>17198.46069708521</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04137649679361673</v>
+        <v>23.14775549262197</v>
       </c>
     </row>
     <row r="84">
@@ -3039,19 +3039,19 @@
         <v>2900</v>
       </c>
       <c r="E84" t="n">
-        <v>312536.2544028361</v>
+        <v>56430.15704495652</v>
       </c>
       <c r="F84" t="n">
         <v>-1</v>
       </c>
       <c r="G84" t="n">
-        <v>56.63577201669019</v>
+        <v>55.06775233293994</v>
       </c>
       <c r="H84" t="n">
-        <v>7183.693559771572</v>
+        <v>17751.23135554374</v>
       </c>
       <c r="I84" t="n">
-        <v>0.04296030118428263</v>
+        <v>22.05132294634933</v>
       </c>
     </row>
     <row r="85">
@@ -3070,19 +3070,19 @@
         <v>2900</v>
       </c>
       <c r="E85" t="n">
-        <v>221379.8468686756</v>
+        <v>523703.2426181633</v>
       </c>
       <c r="F85" t="n">
         <v>-1</v>
       </c>
       <c r="G85" t="n">
-        <v>56.63494934870604</v>
+        <v>56.42483660145305</v>
       </c>
       <c r="H85" t="n">
-        <v>9411.325227101135</v>
+        <v>5105.875891217726</v>
       </c>
       <c r="I85" t="n">
-        <v>0.03859255138981547</v>
+        <v>46.9281550787688</v>
       </c>
     </row>
     <row r="86">
@@ -3101,19 +3101,19 @@
         <v>2900</v>
       </c>
       <c r="E86" t="n">
-        <v>610151.8640072859</v>
+        <v>1184413.186328208</v>
       </c>
       <c r="F86" t="n">
         <v>-1</v>
       </c>
       <c r="G86" t="n">
-        <v>56.65443020702443</v>
+        <v>56.58037665190428</v>
       </c>
       <c r="H86" t="n">
-        <v>4493.791006767426</v>
+        <v>2404.739324975651</v>
       </c>
       <c r="I86" t="n">
-        <v>0.04809906814518424</v>
+        <v>52.10767813730683</v>
       </c>
     </row>
     <row r="87">
@@ -3132,19 +3132,19 @@
         <v>2900</v>
       </c>
       <c r="E87" t="n">
-        <v>26044.68786690301</v>
+        <v>849552.9137537408</v>
       </c>
       <c r="F87" t="n">
         <v>-1</v>
       </c>
       <c r="G87" t="n">
-        <v>56.64941292330727</v>
+        <v>56.52509210485399</v>
       </c>
       <c r="H87" t="n">
-        <v>19801.91535752685</v>
+        <v>3308.147227445779</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01798673249905023</v>
+        <v>50.37209870694537</v>
       </c>
     </row>
     <row r="88">
@@ -3163,19 +3163,19 @@
         <v>2900</v>
       </c>
       <c r="E88" t="n">
-        <v>73793.28228955851</v>
+        <v>86815.62622301003</v>
       </c>
       <c r="F88" t="n">
         <v>-1</v>
       </c>
       <c r="G88" t="n">
-        <v>56.64273122331556</v>
+        <v>55.29938996751175</v>
       </c>
       <c r="H88" t="n">
-        <v>16660.3539986693</v>
+        <v>15876.22678665784</v>
       </c>
       <c r="I88" t="n">
-        <v>0.02421501090371563</v>
+        <v>25.77037814132732</v>
       </c>
     </row>
     <row r="89">
@@ -3194,19 +3194,19 @@
         <v>2900</v>
       </c>
       <c r="E89" t="n">
-        <v>342921.7235808895</v>
+        <v>756536.1713719442</v>
       </c>
       <c r="F89" t="n">
         <v>-1</v>
       </c>
       <c r="G89" t="n">
-        <v>56.63689165863983</v>
+        <v>56.50161725498943</v>
       </c>
       <c r="H89" t="n">
-        <v>6823.438238948469</v>
+        <v>3697.166530294655</v>
       </c>
       <c r="I89" t="n">
-        <v>0.04364667735402647</v>
+        <v>49.62506682121808</v>
       </c>
     </row>
     <row r="90">
@@ -3225,19 +3225,19 @@
         <v>2900</v>
       </c>
       <c r="E90" t="n">
-        <v>164949.6898237191</v>
+        <v>282150.7852247825</v>
       </c>
       <c r="F90" t="n">
         <v>-1</v>
       </c>
       <c r="G90" t="n">
-        <v>56.63622088841866</v>
+        <v>56.30404211061987</v>
       </c>
       <c r="H90" t="n">
-        <v>11762.82435076514</v>
+        <v>7574.775147996834</v>
       </c>
       <c r="I90" t="n">
-        <v>0.03393087010312343</v>
+        <v>42.21532771194043</v>
       </c>
     </row>
     <row r="91">
@@ -3256,19 +3256,19 @@
         <v>2900</v>
       </c>
       <c r="E91" t="n">
-        <v>598875.9568695743</v>
+        <v>812346.2168010224</v>
       </c>
       <c r="F91" t="n">
         <v>-1</v>
       </c>
       <c r="G91" t="n">
-        <v>56.65359688098191</v>
+        <v>56.51646720601818</v>
       </c>
       <c r="H91" t="n">
-        <v>4566.938096303032</v>
+        <v>3456.080579681085</v>
       </c>
       <c r="I91" t="n">
-        <v>0.04795880361758773</v>
+        <v>50.08832494771948</v>
       </c>
     </row>
     <row r="92">
@@ -3287,19 +3287,19 @@
         <v>2900</v>
       </c>
       <c r="E92" t="n">
-        <v>561289.5997438689</v>
+        <v>1035586.398517334</v>
       </c>
       <c r="F92" t="n">
         <v>-1</v>
       </c>
       <c r="G92" t="n">
-        <v>56.650754994217</v>
+        <v>56.56039341232643</v>
       </c>
       <c r="H92" t="n">
-        <v>4824.775037722879</v>
+        <v>2735.702502070863</v>
       </c>
       <c r="I92" t="n">
-        <v>0.04746485337603164</v>
+        <v>51.47211944004597</v>
       </c>
     </row>
     <row r="93">
@@ -3318,19 +3318,19 @@
         <v>2900</v>
       </c>
       <c r="E93" t="n">
-        <v>230061.4094909766</v>
+        <v>572565.5068815805</v>
       </c>
       <c r="F93" t="n">
         <v>-1</v>
       </c>
       <c r="G93" t="n">
-        <v>56.63492850940284</v>
+        <v>56.44290188821369</v>
       </c>
       <c r="H93" t="n">
-        <v>9100.727796438965</v>
+        <v>4745.201956651672</v>
       </c>
       <c r="I93" t="n">
-        <v>0.03920742138252351</v>
+        <v>47.61705639113648</v>
       </c>
     </row>
     <row r="94">
@@ -3349,19 +3349,19 @@
         <v>2900</v>
       </c>
       <c r="E94" t="n">
-        <v>17363.125244602</v>
+        <v>787541.7521658764</v>
       </c>
       <c r="F94" t="n">
         <v>-1</v>
       </c>
       <c r="G94" t="n">
-        <v>56.65100722727412</v>
+        <v>56.51019321740483</v>
       </c>
       <c r="H94" t="n">
-        <v>20426.58848379871</v>
+        <v>3560.00345853525</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0167493650419361</v>
+        <v>49.888759444697</v>
       </c>
     </row>
     <row r="95">
@@ -3380,19 +3380,19 @@
         <v>2900</v>
       </c>
       <c r="E95" t="n">
-        <v>30385.46917805351</v>
+        <v>985977.4692470422</v>
       </c>
       <c r="F95" t="n">
         <v>-1</v>
       </c>
       <c r="G95" t="n">
-        <v>56.64867845545595</v>
+        <v>56.55146450110151</v>
       </c>
       <c r="H95" t="n">
-        <v>19496.7991321303</v>
+        <v>2873.077183495714</v>
       </c>
       <c r="I95" t="n">
-        <v>0.01859126461183028</v>
+        <v>51.20768028404289</v>
       </c>
     </row>
     <row r="96">
@@ -3411,19 +3411,19 @@
         <v>2900</v>
       </c>
       <c r="E96" t="n">
-        <v>234402.190802127</v>
+        <v>437254.6212290407</v>
       </c>
       <c r="F96" t="n">
         <v>-1</v>
       </c>
       <c r="G96" t="n">
-        <v>56.63485401184901</v>
+        <v>56.38536832673039</v>
       </c>
       <c r="H96" t="n">
-        <v>8950.350469929544</v>
+        <v>5840.68970935739</v>
       </c>
       <c r="I96" t="n">
-        <v>0.03950453214387768</v>
+        <v>45.52196874077654</v>
       </c>
     </row>
     <row r="97">
@@ -3442,19 +3442,19 @@
         <v>2900</v>
       </c>
       <c r="E97" t="n">
-        <v>534979.149755875</v>
+        <v>390670.3180035451</v>
       </c>
       <c r="F97" t="n">
         <v>-1</v>
       </c>
       <c r="G97" t="n">
-        <v>56.64953300389887</v>
+        <v>56.36214743389821</v>
       </c>
       <c r="H97" t="n">
-        <v>5018.230930458169</v>
+        <v>6301.218247875279</v>
       </c>
       <c r="I97" t="n">
-        <v>0.04709565704805593</v>
+        <v>44.64218710193521</v>
       </c>
     </row>
     <row r="98">
@@ -3473,19 +3473,19 @@
         <v>2900</v>
       </c>
       <c r="E98" t="n">
-        <v>482358.2497798872</v>
+        <v>212698.2842463746</v>
       </c>
       <c r="F98" t="n">
         <v>-1</v>
       </c>
       <c r="G98" t="n">
-        <v>56.64489922859837</v>
+        <v>56.05798594544053</v>
       </c>
       <c r="H98" t="n">
-        <v>5440.640838119236</v>
+        <v>9735.85554633534</v>
       </c>
       <c r="I98" t="n">
-        <v>0.04628641986812707</v>
+        <v>37.94976681825079</v>
       </c>
     </row>
     <row r="99">
@@ -3504,19 +3504,19 @@
         <v>2900</v>
       </c>
       <c r="E99" t="n">
-        <v>403692.6619369966</v>
+        <v>247424.5347355785</v>
       </c>
       <c r="F99" t="n">
         <v>-1</v>
       </c>
       <c r="G99" t="n">
-        <v>56.63975444746256</v>
+        <v>56.20180835315624</v>
       </c>
       <c r="H99" t="n">
-        <v>6166.088646544337</v>
+        <v>8521.875099516845</v>
       </c>
       <c r="I99" t="n">
-        <v>0.04490030787395762</v>
+        <v>40.35153397899723</v>
       </c>
     </row>
     <row r="100">
@@ -3535,19 +3535,19 @@
         <v>2900</v>
       </c>
       <c r="E100" t="n">
-        <v>308195.4730916856</v>
+        <v>225720.6281798261</v>
       </c>
       <c r="F100" t="n">
         <v>-1</v>
       </c>
       <c r="G100" t="n">
-        <v>56.63582437286225</v>
+        <v>56.11573354041324</v>
       </c>
       <c r="H100" t="n">
-        <v>7237.711711073314</v>
+        <v>9254.027271241563</v>
       </c>
       <c r="I100" t="n">
-        <v>0.04285763988437057</v>
+        <v>38.90369163622658</v>
       </c>
     </row>
     <row r="101">
@@ -3566,19 +3566,19 @@
         <v>2900</v>
       </c>
       <c r="E101" t="n">
-        <v>104178.751467612</v>
+        <v>52089.37573380602</v>
       </c>
       <c r="F101" t="n">
         <v>-1</v>
       </c>
       <c r="G101" t="n">
-        <v>56.63980791333412</v>
+        <v>55.03349017983148</v>
       </c>
       <c r="H101" t="n">
-        <v>14875.43183840881</v>
+        <v>18031.55167042389</v>
       </c>
       <c r="I101" t="n">
-        <v>0.02775551485024846</v>
+        <v>21.49567860309905</v>
       </c>
     </row>
     <row r="102">
@@ -3597,19 +3597,19 @@
         <v>2900</v>
       </c>
       <c r="E102" t="n">
-        <v>303854.6917805351</v>
+        <v>1203016.534804567</v>
       </c>
       <c r="F102" t="n">
         <v>-1</v>
       </c>
       <c r="G102" t="n">
-        <v>56.63495612547751</v>
+        <v>56.58242066311299</v>
       </c>
       <c r="H102" t="n">
-        <v>7291.515231026368</v>
+        <v>2368.331043072459</v>
       </c>
       <c r="I102" t="n">
-        <v>0.04275397665646113</v>
+        <v>52.1774397870538</v>
       </c>
     </row>
     <row r="103">
@@ -3628,19 +3628,19 @@
         <v>2900</v>
       </c>
       <c r="E103" t="n">
-        <v>459806.435504464</v>
+        <v>1047988.630834906</v>
       </c>
       <c r="F103" t="n">
         <v>-1</v>
       </c>
       <c r="G103" t="n">
-        <v>56.64368697344895</v>
+        <v>56.562387967258</v>
       </c>
       <c r="H103" t="n">
-        <v>5636.445144537412</v>
+        <v>2703.150764410209</v>
       </c>
       <c r="I103" t="n">
-        <v>0.04591263624376236</v>
+        <v>51.53465864826709</v>
       </c>
     </row>
     <row r="104">
@@ -3659,19 +3659,19 @@
         <v>2900</v>
       </c>
       <c r="E104" t="n">
-        <v>448530.5283667523</v>
+        <v>277810.0039136321</v>
       </c>
       <c r="F104" t="n">
         <v>-1</v>
       </c>
       <c r="G104" t="n">
-        <v>56.64328610201028</v>
+        <v>56.29527638708746</v>
       </c>
       <c r="H104" t="n">
-        <v>5739.227337684879</v>
+        <v>7672.817602300377</v>
       </c>
       <c r="I104" t="n">
-        <v>0.04571668022225554</v>
+        <v>42.02420777846247</v>
       </c>
     </row>
     <row r="105">
@@ -3690,19 +3690,19 @@
         <v>2900</v>
       </c>
       <c r="E105" t="n">
-        <v>143245.7832679665</v>
+        <v>69452.50097840802</v>
       </c>
       <c r="F105" t="n">
         <v>-1</v>
       </c>
       <c r="G105" t="n">
-        <v>56.63714888417224</v>
+        <v>55.16943987980805</v>
       </c>
       <c r="H105" t="n">
-        <v>12802.40991285705</v>
+        <v>16928.06513739502</v>
       </c>
       <c r="I105" t="n">
-        <v>0.03186865596319357</v>
+        <v>23.68405973541248</v>
       </c>
     </row>
     <row r="106">
@@ -3721,19 +3721,19 @@
         <v>2900</v>
       </c>
       <c r="E106" t="n">
-        <v>334240.1609585886</v>
+        <v>260446.8786690301</v>
       </c>
       <c r="F106" t="n">
         <v>-1</v>
       </c>
       <c r="G106" t="n">
-        <v>56.63646133509809</v>
+        <v>56.24778011309122</v>
       </c>
       <c r="H106" t="n">
-        <v>6923.582296756365</v>
+        <v>8124.980857758509</v>
       </c>
       <c r="I106" t="n">
-        <v>0.04345590934464962</v>
+        <v>41.13570977923199</v>
       </c>
     </row>
     <row r="107">
@@ -3752,19 +3752,19 @@
         <v>2900</v>
       </c>
       <c r="E107" t="n">
-        <v>516185.9711930223</v>
+        <v>13022.3439334515</v>
       </c>
       <c r="F107" t="n">
         <v>-1</v>
       </c>
       <c r="G107" t="n">
-        <v>56.64819321401766</v>
+        <v>54.70327992041786</v>
       </c>
       <c r="H107" t="n">
-        <v>5164.336362585791</v>
+        <v>20746.7845652932</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0468160422522768</v>
+        <v>16.11526684802394</v>
       </c>
     </row>
     <row r="108">
@@ -3783,19 +3783,19 @@
         <v>2900</v>
       </c>
       <c r="E108" t="n">
-        <v>360284.8488254917</v>
+        <v>160608.9085125685</v>
       </c>
       <c r="F108" t="n">
         <v>-1</v>
       </c>
       <c r="G108" t="n">
-        <v>56.63783954419978</v>
+        <v>55.78435560186054</v>
       </c>
       <c r="H108" t="n">
-        <v>6627.319237248221</v>
+        <v>11965.05660371316</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0440208449992811</v>
+        <v>33.52993062419934</v>
       </c>
     </row>
     <row r="109">
@@ -3814,19 +3814,19 @@
         <v>2900</v>
       </c>
       <c r="E109" t="n">
-        <v>501151.4283427401</v>
+        <v>553772.3283187277</v>
       </c>
       <c r="F109" t="n">
         <v>-1</v>
       </c>
       <c r="G109" t="n">
-        <v>56.64696349713838</v>
+        <v>56.43600912918045</v>
       </c>
       <c r="H109" t="n">
-        <v>5286.87906086184</v>
+        <v>4879.012005916476</v>
       </c>
       <c r="I109" t="n">
-        <v>0.04658149393933001</v>
+        <v>47.36128343025808</v>
       </c>
     </row>
     <row r="110">
@@ -3845,19 +3845,19 @@
         <v>2900</v>
       </c>
       <c r="E110" t="n">
-        <v>173631.2524460201</v>
+        <v>316877.0357139866</v>
       </c>
       <c r="F110" t="n">
         <v>-1</v>
       </c>
       <c r="G110" t="n">
-        <v>56.63589117286542</v>
+        <v>56.32402638869432</v>
       </c>
       <c r="H110" t="n">
-        <v>11365.73331806025</v>
+        <v>7130.746834670999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03471854963276799</v>
+        <v>43.06118311742775</v>
       </c>
     </row>
     <row r="111">
@@ -3876,19 +3876,19 @@
         <v>2900</v>
       </c>
       <c r="E111" t="n">
-        <v>138905.001956816</v>
+        <v>177972.0337571705</v>
       </c>
       <c r="F111" t="n">
         <v>-1</v>
       </c>
       <c r="G111" t="n">
-        <v>56.63744738522668</v>
+        <v>55.88251942526608</v>
       </c>
       <c r="H111" t="n">
-        <v>13020.60733381228</v>
+        <v>11173.65142070465</v>
       </c>
       <c r="I111" t="n">
-        <v>0.03143612586651406</v>
+        <v>35.10006970484933</v>
       </c>
     </row>
     <row r="112">
@@ -3907,19 +3907,19 @@
         <v>2900</v>
       </c>
       <c r="E112" t="n">
-        <v>299513.9104693846</v>
+        <v>550013.6926061572</v>
       </c>
       <c r="F112" t="n">
         <v>-1</v>
       </c>
       <c r="G112" t="n">
-        <v>56.63519113920814</v>
+        <v>56.43457250061759</v>
       </c>
       <c r="H112" t="n">
-        <v>7343.42101191149</v>
+        <v>4906.48160725451</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04265578772174782</v>
+        <v>47.30875467548216</v>
       </c>
     </row>
     <row r="113">
@@ -3938,19 +3938,19 @@
         <v>2900</v>
       </c>
       <c r="E113" t="n">
-        <v>347262.5048920401</v>
+        <v>1122402.024740344</v>
       </c>
       <c r="F113" t="n">
         <v>-1</v>
       </c>
       <c r="G113" t="n">
-        <v>56.63703739545478</v>
+        <v>56.57290880664723</v>
       </c>
       <c r="H113" t="n">
-        <v>6773.298308579814</v>
+        <v>2523.194175767798</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04374219304076839</v>
+        <v>51.87989001463665</v>
       </c>
     </row>
     <row r="114">
@@ -3969,19 +3969,19 @@
         <v>2900</v>
       </c>
       <c r="E114" t="n">
-        <v>565048.2354564394</v>
+        <v>478599.6140673168</v>
       </c>
       <c r="F114" t="n">
         <v>-1</v>
       </c>
       <c r="G114" t="n">
-        <v>56.65099315301668</v>
+        <v>56.40414074887488</v>
       </c>
       <c r="H114" t="n">
-        <v>4798.016197263115</v>
+        <v>5472.638184937684</v>
       </c>
       <c r="I114" t="n">
-        <v>0.04751603343489599</v>
+        <v>46.22529914784276</v>
       </c>
     </row>
     <row r="115">
@@ -4000,19 +4000,19 @@
         <v>2900</v>
       </c>
       <c r="E115" t="n">
-        <v>587600.0497318627</v>
+        <v>1085195.327787625</v>
       </c>
       <c r="F115" t="n">
         <v>-1</v>
       </c>
       <c r="G115" t="n">
-        <v>56.65255168181869</v>
+        <v>56.56805227405937</v>
       </c>
       <c r="H115" t="n">
-        <v>4642.588258215002</v>
+        <v>2611.184858067348</v>
       </c>
       <c r="I115" t="n">
-        <v>0.04781358525469687</v>
+        <v>51.71137508051972</v>
       </c>
     </row>
     <row r="116">
@@ -4031,19 +4031,19 @@
         <v>2900</v>
       </c>
       <c r="E116" t="n">
-        <v>463565.0712170345</v>
+        <v>762737.2875307308</v>
       </c>
       <c r="F116" t="n">
         <v>-1</v>
       </c>
       <c r="G116" t="n">
-        <v>56.64371681694684</v>
+        <v>56.50323187799906</v>
       </c>
       <c r="H116" t="n">
-        <v>5603.13916850491</v>
+        <v>3668.938525434903</v>
       </c>
       <c r="I116" t="n">
-        <v>0.04597584644952161</v>
+        <v>49.67918416420862</v>
       </c>
     </row>
     <row r="117">
@@ -4062,19 +4062,19 @@
         <v>2900</v>
       </c>
       <c r="E117" t="n">
-        <v>95497.18884531103</v>
+        <v>273469.2226024816</v>
       </c>
       <c r="F117" t="n">
         <v>-1</v>
       </c>
       <c r="G117" t="n">
-        <v>56.64057012641323</v>
+        <v>56.28573513607095</v>
       </c>
       <c r="H117" t="n">
-        <v>15369.64365605953</v>
+        <v>7774.248444496163</v>
       </c>
       <c r="I117" t="n">
-        <v>0.02677517509552646</v>
+        <v>41.82601008035765</v>
       </c>
     </row>
     <row r="118">
@@ -4093,19 +4093,19 @@
         <v>2900</v>
       </c>
       <c r="E118" t="n">
-        <v>351603.2862031906</v>
+        <v>441013.2569416112</v>
       </c>
       <c r="F118" t="n">
         <v>-1</v>
       </c>
       <c r="G118" t="n">
-        <v>56.63718833368934</v>
+        <v>56.38680502159618</v>
       </c>
       <c r="H118" t="n">
-        <v>6723.683544650727</v>
+        <v>5805.121682838353</v>
       </c>
       <c r="I118" t="n">
-        <v>0.04383671704845048</v>
+        <v>45.58956023991846</v>
       </c>
     </row>
     <row r="119">
@@ -4124,19 +4124,19 @@
         <v>2900</v>
       </c>
       <c r="E119" t="n">
-        <v>4340.781311150501</v>
+        <v>1227820.999439713</v>
       </c>
       <c r="F119" t="n">
         <v>-1</v>
       </c>
       <c r="G119" t="n">
-        <v>56.65373649214603</v>
+        <v>56.58532866210327</v>
       </c>
       <c r="H119" t="n">
-        <v>21403.29871601494</v>
+        <v>2322.016523561288</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01481557671712482</v>
+        <v>52.26649054608067</v>
       </c>
     </row>
     <row r="120">
@@ -4155,19 +4155,19 @@
         <v>2900</v>
       </c>
       <c r="E120" t="n">
-        <v>329899.3796474381</v>
+        <v>744133.9390543716</v>
       </c>
       <c r="F120" t="n">
         <v>-1</v>
       </c>
       <c r="G120" t="n">
-        <v>56.6362319763544</v>
+        <v>56.49833201541464</v>
       </c>
       <c r="H120" t="n">
-        <v>6974.091846468329</v>
+        <v>3754.829515559863</v>
       </c>
       <c r="I120" t="n">
-        <v>0.04335950614611219</v>
+        <v>49.5145312257048</v>
       </c>
     </row>
     <row r="121">
@@ -4186,19 +4186,19 @@
         <v>2900</v>
       </c>
       <c r="E121" t="n">
-        <v>195335.1590017726</v>
+        <v>568806.8711690099</v>
       </c>
       <c r="F121" t="n">
         <v>-1</v>
       </c>
       <c r="G121" t="n">
-        <v>56.63522670489582</v>
+        <v>56.44151115708073</v>
       </c>
       <c r="H121" t="n">
-        <v>10427.04939248838</v>
+        <v>4771.492554850502</v>
       </c>
       <c r="I121" t="n">
-        <v>0.03657957259878505</v>
+        <v>47.56676642244771</v>
       </c>
     </row>
     <row r="122">
@@ -4217,19 +4217,19 @@
         <v>2900</v>
       </c>
       <c r="E122" t="n">
-        <v>381988.7553812441</v>
+        <v>531220.5140433045</v>
       </c>
       <c r="F122" t="n">
         <v>-1</v>
       </c>
       <c r="G122" t="n">
-        <v>56.63843485936185</v>
+        <v>56.4277391755165</v>
       </c>
       <c r="H122" t="n">
-        <v>6390.602189237034</v>
+        <v>5047.135856154783</v>
       </c>
       <c r="I122" t="n">
-        <v>0.04447162468204532</v>
+        <v>47.04031126915763</v>
       </c>
     </row>
     <row r="123">
@@ -4248,19 +4248,19 @@
         <v>2900</v>
       </c>
       <c r="E123" t="n">
-        <v>130223.439334515</v>
+        <v>793742.8683246629</v>
       </c>
       <c r="F123" t="n">
         <v>-1</v>
       </c>
       <c r="G123" t="n">
-        <v>56.63801790618448</v>
+        <v>56.51213312937816</v>
       </c>
       <c r="H123" t="n">
-        <v>13466.50305880184</v>
+        <v>3532.068917545521</v>
       </c>
       <c r="I123" t="n">
-        <v>0.03055157534326139</v>
+        <v>49.94265624808599</v>
       </c>
     </row>
     <row r="124">
@@ -4279,19 +4279,19 @@
         <v>2900</v>
       </c>
       <c r="E124" t="n">
-        <v>557530.9640312983</v>
+        <v>47748.59442265551</v>
       </c>
       <c r="F124" t="n">
         <v>-1</v>
       </c>
       <c r="G124" t="n">
-        <v>56.65006898743433</v>
+        <v>54.99839328212709</v>
       </c>
       <c r="H124" t="n">
-        <v>4851.304509753744</v>
+        <v>18316.43234639246</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04741342462036677</v>
+        <v>20.93071746480592</v>
       </c>
     </row>
     <row r="125">
@@ -4310,19 +4310,19 @@
         <v>2900</v>
       </c>
       <c r="E125" t="n">
-        <v>134564.2206456655</v>
+        <v>486116.8854924578</v>
       </c>
       <c r="F125" t="n">
         <v>-1</v>
       </c>
       <c r="G125" t="n">
-        <v>56.63772134304383</v>
+        <v>56.4073446925379</v>
       </c>
       <c r="H125" t="n">
-        <v>13240.71046104938</v>
+        <v>5408.928655119047</v>
       </c>
       <c r="I125" t="n">
-        <v>0.03099926926706768</v>
+        <v>46.34699972705624</v>
       </c>
     </row>
     <row r="126">
@@ -4341,19 +4341,19 @@
         <v>2900</v>
       </c>
       <c r="E126" t="n">
-        <v>474840.9783547462</v>
+        <v>251765.3160467291</v>
       </c>
       <c r="F126" t="n">
         <v>-1</v>
       </c>
       <c r="G126" t="n">
-        <v>56.64445639694818</v>
+        <v>56.21797066255025</v>
       </c>
       <c r="H126" t="n">
-        <v>5504.923304623592</v>
+        <v>8383.591984918816</v>
       </c>
       <c r="I126" t="n">
-        <v>0.04616363267849343</v>
+        <v>40.62489617481252</v>
       </c>
     </row>
     <row r="127">
@@ -4372,19 +4372,19 @@
         <v>2900</v>
       </c>
       <c r="E127" t="n">
-        <v>182312.815068321</v>
+        <v>199675.9403129231</v>
       </c>
       <c r="F127" t="n">
         <v>-1</v>
       </c>
       <c r="G127" t="n">
-        <v>56.63548389920394</v>
+        <v>55.99524783627642</v>
       </c>
       <c r="H127" t="n">
-        <v>10982.11741215909</v>
+        <v>10248.62118993744</v>
       </c>
       <c r="I127" t="n">
-        <v>0.03547854664936861</v>
+        <v>36.93330948112049</v>
       </c>
     </row>
     <row r="128">
@@ -4403,19 +4403,19 @@
         <v>2900</v>
       </c>
       <c r="E128" t="n">
-        <v>286491.5665359331</v>
+        <v>737932.8228955851</v>
       </c>
       <c r="F128" t="n">
         <v>-1</v>
       </c>
       <c r="G128" t="n">
-        <v>56.63475079125772</v>
+        <v>56.49665980339114</v>
       </c>
       <c r="H128" t="n">
-        <v>7511.66317414979</v>
+        <v>3784.276670334547</v>
       </c>
       <c r="I128" t="n">
-        <v>0.04233520770517172</v>
+        <v>49.45808873398739</v>
       </c>
     </row>
     <row r="129">
@@ -4434,19 +4434,19 @@
         <v>2900</v>
       </c>
       <c r="E129" t="n">
-        <v>373307.1927589431</v>
+        <v>377647.9740700936</v>
       </c>
       <c r="F129" t="n">
         <v>-1</v>
       </c>
       <c r="G129" t="n">
-        <v>56.63840438566564</v>
+        <v>56.35625362435901</v>
       </c>
       <c r="H129" t="n">
-        <v>6483.174973935409</v>
+        <v>6436.438402999932</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0442956954717179</v>
+        <v>44.38479036204168</v>
       </c>
     </row>
     <row r="130">
@@ -4465,19 +4465,19 @@
         <v>2900</v>
       </c>
       <c r="E130" t="n">
-        <v>538737.7854684455</v>
+        <v>576324.142594151</v>
       </c>
       <c r="F130" t="n">
         <v>-1</v>
       </c>
       <c r="G130" t="n">
-        <v>56.64955021339284</v>
+        <v>56.44428309826645</v>
       </c>
       <c r="H130" t="n">
-        <v>4989.438329922251</v>
+        <v>4719.142264945677</v>
       </c>
       <c r="I130" t="n">
-        <v>0.04715035630443565</v>
+        <v>47.66690736386734</v>
       </c>
     </row>
     <row r="131">
@@ -4496,19 +4496,19 @@
         <v>2900</v>
       </c>
       <c r="E131" t="n">
-        <v>542496.421181016</v>
+        <v>125882.6580233645</v>
       </c>
       <c r="F131" t="n">
         <v>-1</v>
       </c>
       <c r="G131" t="n">
-        <v>56.64978737819207</v>
+        <v>55.57045971595105</v>
       </c>
       <c r="H131" t="n">
-        <v>4961.194293138631</v>
+        <v>13693.16673445894</v>
       </c>
       <c r="I131" t="n">
-        <v>0.04720435934448561</v>
+        <v>30.10183370844404</v>
       </c>
     </row>
     <row r="132">
@@ -4527,19 +4527,19 @@
         <v>2900</v>
       </c>
       <c r="E132" t="n">
-        <v>34726.25048920401</v>
+        <v>395011.0993146956</v>
       </c>
       <c r="F132" t="n">
         <v>-1</v>
       </c>
       <c r="G132" t="n">
-        <v>56.64798291759643</v>
+        <v>56.36415421833192</v>
       </c>
       <c r="H132" t="n">
-        <v>19195.62044160341</v>
+        <v>6255.155907666995</v>
       </c>
       <c r="I132" t="n">
-        <v>0.01918816137318965</v>
+        <v>44.72986760513282</v>
       </c>
     </row>
     <row r="133">
@@ -4558,19 +4558,19 @@
         <v>2900</v>
       </c>
       <c r="E133" t="n">
-        <v>82474.84491185953</v>
+        <v>1134804.257057917</v>
       </c>
       <c r="F133" t="n">
         <v>-1</v>
       </c>
       <c r="G133" t="n">
-        <v>56.64180946367006</v>
+        <v>56.57414227896243</v>
       </c>
       <c r="H133" t="n">
-        <v>16134.25071340019</v>
+        <v>2501.276528956059</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0252583141308952</v>
+        <v>51.92188924701581</v>
       </c>
     </row>
     <row r="134">
@@ -4589,19 +4589,19 @@
         <v>2900</v>
       </c>
       <c r="E134" t="n">
-        <v>156268.127201418</v>
+        <v>264787.6599801806</v>
       </c>
       <c r="F134" t="n">
         <v>-1</v>
       </c>
       <c r="G134" t="n">
-        <v>56.63655029790947</v>
+        <v>56.26141498596885</v>
       </c>
       <c r="H134" t="n">
-        <v>12169.78103665081</v>
+        <v>8002.852865976375</v>
       </c>
       <c r="I134" t="n">
-        <v>0.03312361139222877</v>
+        <v>41.37649679361679</v>
       </c>
     </row>
     <row r="135">
@@ -4620,19 +4620,19 @@
         <v>2900</v>
       </c>
       <c r="E135" t="n">
-        <v>467323.7069296051</v>
+        <v>1097597.560105198</v>
       </c>
       <c r="F135" t="n">
         <v>-1</v>
       </c>
       <c r="G135" t="n">
-        <v>56.64373573527336</v>
+        <v>56.56993481654211</v>
       </c>
       <c r="H135" t="n">
-        <v>5569.648868783022</v>
+        <v>2582.044909705163</v>
       </c>
       <c r="I135" t="n">
-        <v>0.04603971985878378</v>
+        <v>51.76745651366863</v>
       </c>
     </row>
     <row r="136">
@@ -4651,19 +4651,19 @@
         <v>2900</v>
       </c>
       <c r="E136" t="n">
-        <v>169290.4711348696</v>
+        <v>855754.0299125273</v>
       </c>
       <c r="F136" t="n">
         <v>-1</v>
       </c>
       <c r="G136" t="n">
-        <v>56.63599945394798</v>
+        <v>56.52711750968403</v>
       </c>
       <c r="H136" t="n">
-        <v>11562.93296344567</v>
+        <v>3290.704574803019</v>
       </c>
       <c r="I136" t="n">
-        <v>0.03432743829052806</v>
+        <v>50.40656659972229</v>
       </c>
     </row>
     <row r="137">
@@ -4682,19 +4682,19 @@
         <v>2900</v>
       </c>
       <c r="E137" t="n">
-        <v>580082.7783067216</v>
+        <v>312536.2544028361</v>
       </c>
       <c r="F137" t="n">
         <v>-1</v>
       </c>
       <c r="G137" t="n">
-        <v>56.65232447167353</v>
+        <v>56.32162279632013</v>
       </c>
       <c r="H137" t="n">
-        <v>4692.916511863838</v>
+        <v>7183.693559771583</v>
       </c>
       <c r="I137" t="n">
-        <v>0.04771768046991098</v>
+        <v>42.96030118428263</v>
       </c>
     </row>
     <row r="138">
@@ -4713,19 +4713,19 @@
         <v>2900</v>
       </c>
       <c r="E138" t="n">
-        <v>497392.7926301694</v>
+        <v>719329.4744192258</v>
       </c>
       <c r="F138" t="n">
         <v>-1</v>
       </c>
       <c r="G138" t="n">
-        <v>56.64639654347467</v>
+        <v>56.49150654011925</v>
       </c>
       <c r="H138" t="n">
-        <v>5318.219212223868</v>
+        <v>3875.100325993792</v>
       </c>
       <c r="I138" t="n">
-        <v>0.04652105608910043</v>
+        <v>49.28400787613661</v>
       </c>
     </row>
     <row r="139">
@@ -4744,19 +4744,19 @@
         <v>2900</v>
       </c>
       <c r="E139" t="n">
-        <v>108519.5327787625</v>
+        <v>221379.8468686756</v>
       </c>
       <c r="F139" t="n">
         <v>-1</v>
       </c>
       <c r="G139" t="n">
-        <v>56.63946136245439</v>
+        <v>56.09715986295006</v>
       </c>
       <c r="H139" t="n">
-        <v>14633.03764904021</v>
+        <v>9411.325227101142</v>
       </c>
       <c r="I139" t="n">
-        <v>0.02823618898329633</v>
+        <v>38.59255138981545</v>
       </c>
     </row>
     <row r="140">
@@ -4775,19 +4775,19 @@
         <v>2900</v>
       </c>
       <c r="E140" t="n">
-        <v>416715.0058704481</v>
+        <v>1128603.14089913</v>
       </c>
       <c r="F140" t="n">
         <v>-1</v>
       </c>
       <c r="G140" t="n">
-        <v>56.64075256593121</v>
+        <v>56.57375182503193</v>
       </c>
       <c r="H140" t="n">
-        <v>6036.510838149067</v>
+        <v>2509.607394348317</v>
       </c>
       <c r="I140" t="n">
-        <v>0.04514813112224098</v>
+        <v>51.90600378750268</v>
       </c>
     </row>
     <row r="141">
@@ -4806,19 +4806,19 @@
         <v>2900</v>
       </c>
       <c r="E141" t="n">
-        <v>243083.7534244281</v>
+        <v>610151.8640072859</v>
       </c>
       <c r="F141" t="n">
         <v>-1</v>
       </c>
       <c r="G141" t="n">
-        <v>56.63482671731572</v>
+        <v>56.45730146890781</v>
       </c>
       <c r="H141" t="n">
-        <v>8661.496882026353</v>
+        <v>4493.791006767426</v>
       </c>
       <c r="I141" t="n">
-        <v>0.04007556079109714</v>
+        <v>48.09906814518423</v>
       </c>
     </row>
     <row r="142">
@@ -4837,19 +4837,19 @@
         <v>2900</v>
       </c>
       <c r="E142" t="n">
-        <v>295173.129158234</v>
+        <v>1190614.302486994</v>
       </c>
       <c r="F142" t="n">
         <v>-1</v>
       </c>
       <c r="G142" t="n">
-        <v>56.63512565668812</v>
+        <v>56.58090414517592</v>
       </c>
       <c r="H142" t="n">
-        <v>7398.506446086479</v>
+        <v>2392.334616893287</v>
       </c>
       <c r="I142" t="n">
-        <v>0.04255097388582749</v>
+        <v>52.13127778598332</v>
       </c>
     </row>
     <row r="143">
@@ -4868,19 +4868,19 @@
         <v>2900</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1141005.373216703</v>
       </c>
       <c r="F143" t="n">
         <v>-1</v>
       </c>
       <c r="G143" t="n">
-        <v>56.65474242645251</v>
+        <v>56.57508482091144</v>
       </c>
       <c r="H143" t="n">
-        <v>21741.68594864994</v>
+        <v>2487.953471930765</v>
       </c>
       <c r="I143" t="n">
-        <v>0.01414583552876846</v>
+        <v>51.94761202886361</v>
       </c>
     </row>
     <row r="144">
@@ -4899,19 +4899,19 @@
         <v>2900</v>
       </c>
       <c r="E144" t="n">
-        <v>190994.3776906221</v>
+        <v>663519.4289901479</v>
       </c>
       <c r="F144" t="n">
         <v>-1</v>
       </c>
       <c r="G144" t="n">
-        <v>56.63529766542463</v>
+        <v>56.4750047937457</v>
       </c>
       <c r="H144" t="n">
-        <v>10609.3781031763</v>
+        <v>4172.113490539859</v>
       </c>
       <c r="I144" t="n">
-        <v>0.03621801679203955</v>
+        <v>48.71507604884585</v>
       </c>
     </row>
     <row r="145">
@@ -4930,25 +4930,25 @@
         <v>2900</v>
       </c>
       <c r="E145" t="n">
-        <v>112860.314089913</v>
+        <v>1209217.650963354</v>
       </c>
       <c r="F145" t="n">
         <v>-1</v>
       </c>
       <c r="G145" t="n">
-        <v>56.63916058509683</v>
+        <v>56.58315976314967</v>
       </c>
       <c r="H145" t="n">
-        <v>14392.92737815816</v>
+        <v>2356.544681262051</v>
       </c>
       <c r="I145" t="n">
-        <v>0.02871280643391664</v>
+        <v>52.2001009484193</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4961,25 +4961,25 @@
         <v>2900</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>874357.3783888866</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3131313131313131</v>
+        <v>-1</v>
       </c>
       <c r="G146" t="n">
-        <v>51.025344888966</v>
+        <v>56.53159912919986</v>
       </c>
       <c r="H146" t="n">
-        <v>1395.130548249831</v>
+        <v>3221.064642318641</v>
       </c>
       <c r="I146" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.54057511612234</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4992,25 +4992,25 @@
         <v>2900</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>26044.68786690301</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6161616161616162</v>
+        <v>-1</v>
       </c>
       <c r="G147" t="n">
-        <v>51.025344888966</v>
+        <v>54.81733467115534</v>
       </c>
       <c r="H147" t="n">
-        <v>1395.130548249831</v>
+        <v>19801.91535752684</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04837253180190042</v>
+        <v>17.98673249905026</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5023,25 +5023,25 @@
         <v>2900</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>73793.28228955851</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3232323232323233</v>
+        <v>-1</v>
       </c>
       <c r="G148" t="n">
-        <v>51.025344888966</v>
+        <v>55.20246131407158</v>
       </c>
       <c r="H148" t="n">
-        <v>1395.130548249831</v>
+        <v>16660.35399866931</v>
       </c>
       <c r="I148" t="n">
-        <v>0.04837253180190042</v>
+        <v>24.21501090371559</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5054,25 +5054,25 @@
         <v>2900</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>880558.494547673</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9797979797979799</v>
+        <v>-1</v>
       </c>
       <c r="G149" t="n">
-        <v>51.025344888966</v>
+        <v>56.53295264687831</v>
       </c>
       <c r="H149" t="n">
-        <v>1395.130548249831</v>
+        <v>3198.84782910833</v>
       </c>
       <c r="I149" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.58325082885653</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5085,25 +5085,25 @@
         <v>2900</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>342921.7235808895</v>
       </c>
       <c r="F150" t="n">
-        <v>0.06060606060606061</v>
+        <v>-1</v>
       </c>
       <c r="G150" t="n">
-        <v>53.93044146752661</v>
+        <v>56.33794154171603</v>
       </c>
       <c r="H150" t="n">
-        <v>5209.020415744611</v>
+        <v>6823.438238948476</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0440218885368439</v>
+        <v>43.64667735402645</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5116,25 +5116,25 @@
         <v>2900</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>164949.6898237191</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0303030303030303</v>
+        <v>-1</v>
       </c>
       <c r="G151" t="n">
-        <v>55.12295284037214</v>
+        <v>55.80915289856561</v>
       </c>
       <c r="H151" t="n">
-        <v>10634.42007077601</v>
+        <v>11762.82435076518</v>
       </c>
       <c r="I151" t="n">
-        <v>0.03471844441752068</v>
+        <v>33.93087010312338</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -5147,25 +5147,25 @@
         <v>2900</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>598875.9568695743</v>
       </c>
       <c r="F152" t="n">
-        <v>0.202020202020202</v>
+        <v>-1</v>
       </c>
       <c r="G152" t="n">
-        <v>51.025344888966</v>
+        <v>56.45308698021368</v>
       </c>
       <c r="H152" t="n">
-        <v>1395.130548249831</v>
+        <v>4566.938096303023</v>
       </c>
       <c r="I152" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.95880361758773</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -5178,25 +5178,25 @@
         <v>2900</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>561289.5997438689</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5454545454545455</v>
+        <v>-1</v>
       </c>
       <c r="G153" t="n">
-        <v>51.025344888966</v>
+        <v>56.43870094460688</v>
       </c>
       <c r="H153" t="n">
-        <v>1395.130548249831</v>
+        <v>4824.775037722889</v>
       </c>
       <c r="I153" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.46485337603164</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5209,25 +5209,25 @@
         <v>2900</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>682122.7774665073</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3434343434343435</v>
+        <v>-1</v>
       </c>
       <c r="G154" t="n">
-        <v>51.025344888966</v>
+        <v>56.48067920039878</v>
       </c>
       <c r="H154" t="n">
-        <v>1395.130548249831</v>
+        <v>4068.975861527712</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04837253180190042</v>
+        <v>48.91258144328652</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -5240,25 +5240,25 @@
         <v>2900</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>620111.615878643</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1717171717171717</v>
+        <v>-1</v>
       </c>
       <c r="G155" t="n">
-        <v>51.12379545035076</v>
+        <v>56.46082229506869</v>
       </c>
       <c r="H155" t="n">
-        <v>1480.80704848043</v>
+        <v>4430.595581919818</v>
       </c>
       <c r="I155" t="n">
-        <v>0.04830910602062892</v>
+        <v>48.22012939658355</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5271,25 +5271,25 @@
         <v>2900</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>230061.4094909766</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9898989898989899</v>
+        <v>-1</v>
       </c>
       <c r="G156" t="n">
-        <v>51.025344888966</v>
+        <v>56.13433369860188</v>
       </c>
       <c r="H156" t="n">
-        <v>1395.130548249831</v>
+        <v>9100.727796438972</v>
       </c>
       <c r="I156" t="n">
-        <v>0.04837253180190042</v>
+        <v>39.20742138252351</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -5302,25 +5302,25 @@
         <v>2900</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>17363.125244602</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6767676767676768</v>
+        <v>-1</v>
       </c>
       <c r="G157" t="n">
-        <v>51.025344888966</v>
+        <v>54.74182893226024</v>
       </c>
       <c r="H157" t="n">
-        <v>1395.130548249831</v>
+        <v>20426.58848379872</v>
       </c>
       <c r="I157" t="n">
-        <v>0.04837253180190042</v>
+        <v>16.74936504193608</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5333,25 +5333,25 @@
         <v>2900</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>644916.0805137887</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2121212121212121</v>
+        <v>-1</v>
       </c>
       <c r="G158" t="n">
-        <v>51.025344888966</v>
+        <v>56.46869169253247</v>
       </c>
       <c r="H158" t="n">
-        <v>1395.130548249831</v>
+        <v>4279.484381171917</v>
       </c>
       <c r="I158" t="n">
-        <v>0.04837253180190042</v>
+        <v>48.50905829854519</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5364,25 +5364,25 @@
         <v>2900</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>30385.46917805351</v>
       </c>
       <c r="F159" t="n">
-        <v>0.101010101010101</v>
+        <v>-1</v>
       </c>
       <c r="G159" t="n">
-        <v>52.6376229702372</v>
+        <v>54.8543654028347</v>
       </c>
       <c r="H159" t="n">
-        <v>2662.543897402251</v>
+        <v>19496.79913213031</v>
       </c>
       <c r="I159" t="n">
-        <v>0.04757275522176789</v>
+        <v>18.59126461183024</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -5395,25 +5395,25 @@
         <v>2900</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>234402.190802127</v>
       </c>
       <c r="F160" t="n">
-        <v>0.494949494949495</v>
+        <v>-1</v>
       </c>
       <c r="G160" t="n">
-        <v>51.025344888966</v>
+        <v>56.15174992594882</v>
       </c>
       <c r="H160" t="n">
-        <v>1395.130548249831</v>
+        <v>8950.350469929554</v>
       </c>
       <c r="I160" t="n">
-        <v>0.04837253180190042</v>
+        <v>39.50453214387765</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5426,25 +5426,25 @@
         <v>2900</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1041787.51467612</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4343434343434344</v>
+        <v>-1</v>
       </c>
       <c r="G161" t="n">
-        <v>51.025344888966</v>
+        <v>56.56138875963116</v>
       </c>
       <c r="H161" t="n">
-        <v>1395.130548249831</v>
+        <v>2719.427169049934</v>
       </c>
       <c r="I161" t="n">
-        <v>0.04837253180190042</v>
+        <v>51.50338611741598</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -5457,25 +5457,25 @@
         <v>2900</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>534979.149755875</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5656565656565657</v>
+        <v>-1</v>
       </c>
       <c r="G162" t="n">
-        <v>51.025344888966</v>
+        <v>56.42932319450794</v>
       </c>
       <c r="H162" t="n">
-        <v>1395.130548249831</v>
+        <v>5018.230930458156</v>
       </c>
       <c r="I162" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.0956570480559</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -5488,25 +5488,25 @@
         <v>2900</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>694525.0097840801</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6060606060606061</v>
+        <v>-1</v>
       </c>
       <c r="G163" t="n">
-        <v>51.025344888966</v>
+        <v>56.48471304708597</v>
       </c>
       <c r="H163" t="n">
-        <v>1395.130548249831</v>
+        <v>4002.690567050911</v>
       </c>
       <c r="I163" t="n">
-        <v>0.04837253180190042</v>
+        <v>49.03990272286378</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -5519,25 +5519,25 @@
         <v>2900</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>482358.2497798872</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1414141414141414</v>
+        <v>-1</v>
       </c>
       <c r="G164" t="n">
-        <v>51.51881373829029</v>
+        <v>56.40574795594816</v>
       </c>
       <c r="H164" t="n">
-        <v>1683.925699160995</v>
+        <v>5440.64083811924</v>
       </c>
       <c r="I164" t="n">
-        <v>0.04831694642320684</v>
+        <v>46.28641986812703</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -5550,25 +5550,25 @@
         <v>2900</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>799943.9844834494</v>
       </c>
       <c r="F165" t="n">
-        <v>0.04040404040404041</v>
+        <v>-1</v>
       </c>
       <c r="G165" t="n">
-        <v>54.78491489639832</v>
+        <v>56.51296530909556</v>
       </c>
       <c r="H165" t="n">
-        <v>8221.380839928022</v>
+        <v>3505.930924571187</v>
       </c>
       <c r="I165" t="n">
-        <v>0.03915502698703233</v>
+        <v>49.992103827043</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -5581,25 +5581,25 @@
         <v>2900</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>403692.6619369966</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8585858585858587</v>
+        <v>-1</v>
       </c>
       <c r="G166" t="n">
-        <v>51.025344888966</v>
+        <v>56.36893370123073</v>
       </c>
       <c r="H166" t="n">
-        <v>1395.130548249831</v>
+        <v>6166.088646544344</v>
       </c>
       <c r="I166" t="n">
-        <v>0.04837253180190042</v>
+        <v>44.9003078739576</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5612,25 +5612,25 @@
         <v>2900</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>930167.4238179644</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7070707070707072</v>
+        <v>-1</v>
       </c>
       <c r="G167" t="n">
-        <v>51.025344888966</v>
+        <v>56.54116272126816</v>
       </c>
       <c r="H167" t="n">
-        <v>1395.130548249831</v>
+        <v>3033.577823137885</v>
       </c>
       <c r="I167" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.89885509875611</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5643,25 +5643,25 @@
         <v>2900</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1215418.76712214</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9090909090909092</v>
+        <v>-1</v>
       </c>
       <c r="G168" t="n">
-        <v>51.025344888966</v>
+        <v>56.58389072728386</v>
       </c>
       <c r="H168" t="n">
-        <v>1395.130548249831</v>
+        <v>2344.89814355753</v>
       </c>
       <c r="I168" t="n">
-        <v>0.04837253180190042</v>
+        <v>52.22249390782681</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5674,25 +5674,25 @@
         <v>2900</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>308195.4730916856</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9191919191919192</v>
+        <v>-1</v>
       </c>
       <c r="G169" t="n">
-        <v>51.025344888966</v>
+        <v>56.31943263794894</v>
       </c>
       <c r="H169" t="n">
-        <v>1395.130548249831</v>
+        <v>7237.71171107332</v>
       </c>
       <c r="I169" t="n">
-        <v>0.04837253180190042</v>
+        <v>42.85763988437055</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -5705,25 +5705,25 @@
         <v>2900</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>104178.751467612</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4040404040404041</v>
+        <v>-1</v>
       </c>
       <c r="G170" t="n">
-        <v>51.025344888966</v>
+        <v>55.42309661124466</v>
       </c>
       <c r="H170" t="n">
-        <v>1395.130548249831</v>
+        <v>14875.43183840884</v>
       </c>
       <c r="I170" t="n">
-        <v>0.04837253180190042</v>
+        <v>27.75551485024838</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -5736,25 +5736,25 @@
         <v>2900</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>818547.3329598086</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1313131313131313</v>
+        <v>-1</v>
       </c>
       <c r="G171" t="n">
-        <v>51.63478105807717</v>
+        <v>56.51797523301251</v>
       </c>
       <c r="H171" t="n">
-        <v>1929.588188143454</v>
+        <v>3430.921206099821</v>
       </c>
       <c r="I171" t="n">
-        <v>0.04796523947873549</v>
+        <v>50.13662818934534</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5767,25 +5767,25 @@
         <v>2900</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>303854.6917805351</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0202020202020202</v>
+        <v>-1</v>
       </c>
       <c r="G172" t="n">
-        <v>55.65490694822942</v>
+        <v>56.31584134768149</v>
       </c>
       <c r="H172" t="n">
-        <v>12327.74859040449</v>
+        <v>7291.515231026377</v>
       </c>
       <c r="I172" t="n">
-        <v>0.03190781035892754</v>
+        <v>42.75397665646113</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -5798,25 +5798,25 @@
         <v>2900</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>459806.435504464</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8484848484848485</v>
+        <v>-1</v>
       </c>
       <c r="G173" t="n">
-        <v>51.025344888966</v>
+        <v>56.39615084501242</v>
       </c>
       <c r="H173" t="n">
-        <v>1395.130548249831</v>
+        <v>5636.445144537406</v>
       </c>
       <c r="I173" t="n">
-        <v>0.04837253180190042</v>
+        <v>45.91263624376235</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -5829,25 +5829,25 @@
         <v>2900</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>731731.7067367986</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8787878787878789</v>
+        <v>-1</v>
       </c>
       <c r="G174" t="n">
-        <v>51.025344888966</v>
+        <v>56.49489320037006</v>
       </c>
       <c r="H174" t="n">
-        <v>1395.130548249831</v>
+        <v>3814.075554591312</v>
       </c>
       <c r="I174" t="n">
-        <v>0.04837253180190042</v>
+        <v>49.40089765149462</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5860,25 +5860,25 @@
         <v>2900</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1221619.883280927</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7171717171717172</v>
+        <v>-1</v>
       </c>
       <c r="G175" t="n">
-        <v>51.025344888966</v>
+        <v>56.58461365941163</v>
       </c>
       <c r="H175" t="n">
-        <v>1395.130548249831</v>
+        <v>2333.389417822866</v>
       </c>
       <c r="I175" t="n">
-        <v>0.04837253180190042</v>
+        <v>52.24462251164787</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -5891,25 +5891,25 @@
         <v>2900</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>448530.5283667523</v>
       </c>
       <c r="F176" t="n">
-        <v>0.787878787878788</v>
+        <v>-1</v>
       </c>
       <c r="G176" t="n">
-        <v>51.025344888966</v>
+        <v>56.39136471782354</v>
       </c>
       <c r="H176" t="n">
-        <v>1395.130548249831</v>
+        <v>5739.227337684881</v>
       </c>
       <c r="I176" t="n">
-        <v>0.04837253180190042</v>
+        <v>45.71668022225554</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -5922,25 +5922,25 @@
         <v>2900</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1196815.418645781</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6262626262626263</v>
+        <v>-1</v>
       </c>
       <c r="G177" t="n">
-        <v>51.025344888966</v>
+        <v>56.58165991909205</v>
       </c>
       <c r="H177" t="n">
-        <v>1395.130548249831</v>
+        <v>2380.261942061698</v>
       </c>
       <c r="I177" t="n">
-        <v>0.04837253180190042</v>
+        <v>52.15448814956148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -5953,25 +5953,25 @@
         <v>2900</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>143245.7832679665</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3535353535353536</v>
+        <v>-1</v>
       </c>
       <c r="G178" t="n">
-        <v>51.025344888966</v>
+        <v>55.68051748422693</v>
       </c>
       <c r="H178" t="n">
-        <v>1395.130548249831</v>
+        <v>12802.40991285709</v>
       </c>
       <c r="I178" t="n">
-        <v>0.04837253180190042</v>
+        <v>31.86865596319351</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -5984,25 +5984,25 @@
         <v>2900</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>334240.1609585886</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9696969696969697</v>
+        <v>-1</v>
       </c>
       <c r="G179" t="n">
-        <v>51.025344888966</v>
+        <v>56.33343662287511</v>
       </c>
       <c r="H179" t="n">
-        <v>1395.130548249831</v>
+        <v>6923.582296756377</v>
       </c>
       <c r="I179" t="n">
-        <v>0.04837253180190042</v>
+        <v>43.45590934464964</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -6015,25 +6015,25 @@
         <v>2900</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>516185.9711930223</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8686868686868687</v>
+        <v>-1</v>
       </c>
       <c r="G180" t="n">
-        <v>51.025344888966</v>
+        <v>56.42145741637277</v>
       </c>
       <c r="H180" t="n">
-        <v>1395.130548249831</v>
+        <v>5164.336362585788</v>
       </c>
       <c r="I180" t="n">
-        <v>0.04837253180190042</v>
+        <v>46.81604225227679</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -6046,25 +6046,25 @@
         <v>2900</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>725530.5905780124</v>
       </c>
       <c r="F181" t="n">
-        <v>0.2727272727272728</v>
+        <v>-1</v>
       </c>
       <c r="G181" t="n">
-        <v>51.025344888966</v>
+        <v>56.4932392783735</v>
       </c>
       <c r="H181" t="n">
-        <v>1395.130548249831</v>
+        <v>3844.400151840445</v>
       </c>
       <c r="I181" t="n">
-        <v>0.04837253180190042</v>
+        <v>49.34284144935764</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -6077,25 +6077,25 @@
         <v>2900</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>360284.8488254917</v>
       </c>
       <c r="F182" t="n">
-        <v>0.888888888888889</v>
+        <v>-1</v>
       </c>
       <c r="G182" t="n">
-        <v>51.025344888966</v>
+        <v>56.34733735557979</v>
       </c>
       <c r="H182" t="n">
-        <v>1395.130548249831</v>
+        <v>6627.319237248214</v>
       </c>
       <c r="I182" t="n">
-        <v>0.04837253180190042</v>
+        <v>44.02084499928112</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -6108,25 +6108,25 @@
         <v>2900</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>706927.2421016529</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3838383838383839</v>
+        <v>-1</v>
       </c>
       <c r="G183" t="n">
-        <v>51.025344888966</v>
+        <v>56.48832639259351</v>
       </c>
       <c r="H183" t="n">
-        <v>1395.130548249831</v>
+        <v>3938.010113116667</v>
       </c>
       <c r="I183" t="n">
-        <v>0.04837253180190042</v>
+        <v>49.163818575687</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -6139,25 +6139,25 @@
         <v>2900</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>501151.4283427401</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3737373737373738</v>
+        <v>-1</v>
       </c>
       <c r="G184" t="n">
-        <v>51.025344888966</v>
+        <v>56.41483257889859</v>
       </c>
       <c r="H184" t="n">
-        <v>1395.130548249831</v>
+        <v>5286.879060861843</v>
       </c>
       <c r="I184" t="n">
-        <v>0.04837253180190042</v>
+        <v>46.58149393933001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -6170,25 +6170,25 @@
         <v>2900</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>173631.2524460201</v>
       </c>
       <c r="F185" t="n">
-        <v>0.4747474747474748</v>
+        <v>-1</v>
       </c>
       <c r="G185" t="n">
-        <v>51.025344888966</v>
+        <v>55.85826236629411</v>
       </c>
       <c r="H185" t="n">
-        <v>1395.130548249831</v>
+        <v>11365.73331806029</v>
       </c>
       <c r="I185" t="n">
-        <v>0.04837253180190042</v>
+        <v>34.71854963276789</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -6201,25 +6201,25 @@
         <v>2900</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>973575.2369294695</v>
       </c>
       <c r="F186" t="n">
-        <v>0.6464646464646465</v>
+        <v>-1</v>
       </c>
       <c r="G186" t="n">
-        <v>51.025344888966</v>
+        <v>56.55027370610533</v>
       </c>
       <c r="H186" t="n">
-        <v>1395.130548249831</v>
+        <v>2900.283713788267</v>
       </c>
       <c r="I186" t="n">
-        <v>0.04837253180190042</v>
+        <v>51.15588666221927</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6232,25 +6232,25 @@
         <v>2900</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>138905.001956816</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4848484848484849</v>
+        <v>-1</v>
       </c>
       <c r="G187" t="n">
-        <v>51.025344888966</v>
+        <v>55.6538240079492</v>
       </c>
       <c r="H187" t="n">
-        <v>1395.130548249831</v>
+        <v>13020.60733381226</v>
       </c>
       <c r="I187" t="n">
-        <v>0.04837253180190042</v>
+        <v>31.43612586651409</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -6263,25 +6263,25 @@
         <v>2900</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>299513.9104693846</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4444444444444445</v>
+        <v>-1</v>
       </c>
       <c r="G188" t="n">
-        <v>51.025344888966</v>
+        <v>56.31419464798413</v>
       </c>
       <c r="H188" t="n">
-        <v>1395.130548249831</v>
+        <v>7343.42101191149</v>
       </c>
       <c r="I188" t="n">
-        <v>0.04837253180190042</v>
+        <v>42.65578772174783</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -6294,25 +6294,25 @@
         <v>2900</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1004580.817723401</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="G189" t="n">
-        <v>51.025344888966</v>
+        <v>56.5558381078398</v>
       </c>
       <c r="H189" t="n">
-        <v>1395.130548249831</v>
+        <v>2814.746524367971</v>
       </c>
       <c r="I189" t="n">
-        <v>0.04837253180190042</v>
+        <v>51.32054608772181</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -6325,25 +6325,25 @@
         <v>2900</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>347262.5048920401</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6565656565656566</v>
+        <v>-1</v>
       </c>
       <c r="G190" t="n">
-        <v>51.025344888966</v>
+        <v>56.34019938975887</v>
       </c>
       <c r="H190" t="n">
-        <v>1395.130548249831</v>
+        <v>6773.298308579808</v>
       </c>
       <c r="I190" t="n">
-        <v>0.04837253180190042</v>
+        <v>43.74219304076838</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -6356,25 +6356,25 @@
         <v>2900</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>565048.2354564394</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7575757575757577</v>
+        <v>-1</v>
       </c>
       <c r="G191" t="n">
-        <v>51.025344888966</v>
+        <v>56.44011085801981</v>
       </c>
       <c r="H191" t="n">
-        <v>1395.130548249831</v>
+        <v>4798.016197263114</v>
       </c>
       <c r="I191" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.51603343489599</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -6387,25 +6387,25 @@
         <v>2900</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1147206.48937549</v>
       </c>
       <c r="F192" t="n">
-        <v>0.09090909090909091</v>
+        <v>-1</v>
       </c>
       <c r="G192" t="n">
-        <v>52.61174657455694</v>
+        <v>56.57589965134864</v>
       </c>
       <c r="H192" t="n">
-        <v>3026.898242887941</v>
+        <v>2474.839093053106</v>
       </c>
       <c r="I192" t="n">
-        <v>0.04685573729815828</v>
+        <v>51.97281896796586</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -6418,25 +6418,25 @@
         <v>2900</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1060390.86315248</v>
       </c>
       <c r="F193" t="n">
-        <v>0.5050505050505051</v>
+        <v>-1</v>
       </c>
       <c r="G193" t="n">
-        <v>51.025344888966</v>
+        <v>56.56433249216964</v>
       </c>
       <c r="H193" t="n">
-        <v>1395.130548249831</v>
+        <v>2671.689899888271</v>
       </c>
       <c r="I193" t="n">
-        <v>0.04837253180190042</v>
+        <v>51.5951188553376</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -6449,25 +6449,25 @@
         <v>2900</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>587600.0497318627</v>
       </c>
       <c r="F194" t="n">
-        <v>0.1919191919191919</v>
+        <v>-1</v>
       </c>
       <c r="G194" t="n">
-        <v>51.025344888966</v>
+        <v>56.44857424944625</v>
       </c>
       <c r="H194" t="n">
-        <v>1395.130548249831</v>
+        <v>4642.588258214999</v>
       </c>
       <c r="I194" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.81358525469687</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -6480,25 +6480,25 @@
         <v>2900</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>837150.6814361679</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8989898989898991</v>
+        <v>-1</v>
       </c>
       <c r="G195" t="n">
-        <v>51.025344888966</v>
+        <v>56.52233521707026</v>
       </c>
       <c r="H195" t="n">
-        <v>1395.130548249831</v>
+        <v>3356.906346503918</v>
       </c>
       <c r="I195" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.27865222253077</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -6511,25 +6511,25 @@
         <v>2900</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>886759.6107064595</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5555555555555556</v>
+        <v>-1</v>
       </c>
       <c r="G196" t="n">
-        <v>51.025344888966</v>
+        <v>56.53412716402142</v>
       </c>
       <c r="H196" t="n">
-        <v>1395.130548249831</v>
+        <v>3179.291615132578</v>
       </c>
       <c r="I196" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.62079895551816</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6542,25 +6542,25 @@
         <v>2900</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>463565.0712170345</v>
       </c>
       <c r="F197" t="n">
-        <v>0.2323232323232323</v>
+        <v>-1</v>
       </c>
       <c r="G197" t="n">
-        <v>51.025344888966</v>
+        <v>56.39741355069106</v>
       </c>
       <c r="H197" t="n">
-        <v>1395.130548249831</v>
+        <v>5603.139168504908</v>
       </c>
       <c r="I197" t="n">
-        <v>0.04837253180190042</v>
+        <v>45.9758464495216</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -6573,25 +6573,25 @@
         <v>2900</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>95497.18884531103</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G198" t="n">
-        <v>56.65474242645243</v>
+        <v>55.36196686807986</v>
       </c>
       <c r="H198" t="n">
-        <v>21741.68594864948</v>
+        <v>15369.6436560595</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0141458355287693</v>
+        <v>26.77517509552652</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -6604,25 +6604,25 @@
         <v>2900</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>998379.7015646149</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3636363636363636</v>
+        <v>-1</v>
       </c>
       <c r="G199" t="n">
-        <v>51.025344888966</v>
+        <v>56.55469436528314</v>
       </c>
       <c r="H199" t="n">
-        <v>1395.130548249831</v>
+        <v>2831.965290598345</v>
       </c>
       <c r="I199" t="n">
-        <v>0.04837253180190042</v>
+        <v>51.28737627508681</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -6635,25 +6635,25 @@
         <v>2900</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>351603.2862031906</v>
       </c>
       <c r="F200" t="n">
-        <v>0.2222222222222222</v>
+        <v>-1</v>
       </c>
       <c r="G200" t="n">
-        <v>51.025344888966</v>
+        <v>56.3424423428489</v>
       </c>
       <c r="H200" t="n">
-        <v>1395.130548249831</v>
+        <v>6723.683544650722</v>
       </c>
       <c r="I200" t="n">
-        <v>0.04837253180190042</v>
+        <v>43.83671704845048</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6666,25 +6666,25 @@
         <v>2900</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>4340.781311150501</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7777777777777778</v>
+        <v>-1</v>
       </c>
       <c r="G201" t="n">
-        <v>51.025344888966</v>
+        <v>54.62467426892487</v>
       </c>
       <c r="H201" t="n">
-        <v>1395.130548249831</v>
+        <v>21403.29871601496</v>
       </c>
       <c r="I201" t="n">
-        <v>0.04837253180190042</v>
+        <v>14.81557671712478</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -6697,25 +6697,25 @@
         <v>2900</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>329899.3796474381</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0101010101010101</v>
+        <v>-1</v>
       </c>
       <c r="G202" t="n">
-        <v>56.14334917396765</v>
+        <v>56.33097873708868</v>
       </c>
       <c r="H202" t="n">
-        <v>18632.89871838643</v>
+        <v>6974.091846468323</v>
       </c>
       <c r="I202" t="n">
-        <v>0.0198051829796399</v>
+        <v>43.35950614611215</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -6728,25 +6728,25 @@
         <v>2900</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1016983.050040975</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5858585858585859</v>
+        <v>-1</v>
       </c>
       <c r="G203" t="n">
-        <v>51.025344888966</v>
+        <v>56.55706984814361</v>
       </c>
       <c r="H203" t="n">
-        <v>1395.130548249831</v>
+        <v>2785.395174180875</v>
       </c>
       <c r="I203" t="n">
-        <v>0.04837253180190042</v>
+        <v>51.37636991583314</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -6759,25 +6759,25 @@
         <v>2900</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1159608.721693062</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9292929292929294</v>
+        <v>-1</v>
       </c>
       <c r="G204" t="n">
-        <v>51.025344888966</v>
+        <v>56.57758187503888</v>
       </c>
       <c r="H204" t="n">
-        <v>1395.130548249831</v>
+        <v>2449.268215504867</v>
       </c>
       <c r="I204" t="n">
-        <v>0.04837253180190042</v>
+        <v>52.02206178370828</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -6790,25 +6790,25 @@
         <v>2900</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>899161.8430240322</v>
       </c>
       <c r="F205" t="n">
-        <v>0.4545454545454546</v>
+        <v>-1</v>
       </c>
       <c r="G205" t="n">
-        <v>51.025344888966</v>
+        <v>56.53667763958065</v>
       </c>
       <c r="H205" t="n">
-        <v>1395.130548249831</v>
+        <v>3136.446435730696</v>
       </c>
       <c r="I205" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.70303938677369</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -6821,25 +6821,25 @@
         <v>2900</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>830949.5652773816</v>
       </c>
       <c r="F206" t="n">
-        <v>0.303030303030303</v>
+        <v>-1</v>
       </c>
       <c r="G206" t="n">
-        <v>51.025344888966</v>
+        <v>56.52019995491137</v>
       </c>
       <c r="H206" t="n">
-        <v>1395.130548249831</v>
+        <v>3381.517888505962</v>
       </c>
       <c r="I206" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.23074068590788</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -6852,25 +6852,25 @@
         <v>2900</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>195335.1590017726</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4646464646464647</v>
+        <v>-1</v>
       </c>
       <c r="G207" t="n">
-        <v>51.025344888966</v>
+        <v>55.9733787569179</v>
       </c>
       <c r="H207" t="n">
-        <v>1395.130548249831</v>
+        <v>10427.04939248838</v>
       </c>
       <c r="I207" t="n">
-        <v>0.04837253180190042</v>
+        <v>36.57957259878505</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -6883,25 +6883,25 @@
         <v>2900</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>775139.5198483038</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G208" t="n">
-        <v>51.025344888966</v>
+        <v>56.50640161323738</v>
       </c>
       <c r="H208" t="n">
-        <v>1395.130548249831</v>
+        <v>3613.655720843714</v>
       </c>
       <c r="I208" t="n">
-        <v>0.04837253180190042</v>
+        <v>49.78517723477054</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -6914,25 +6914,25 @@
         <v>2900</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>381988.7553812441</v>
       </c>
       <c r="F209" t="n">
-        <v>0.07070707070707072</v>
+        <v>-1</v>
       </c>
       <c r="G209" t="n">
-        <v>53.41828202618935</v>
+        <v>56.35783480982005</v>
       </c>
       <c r="H209" t="n">
-        <v>4121.650783175734</v>
+        <v>6390.602189237029</v>
       </c>
       <c r="I209" t="n">
-        <v>0.04557826890258029</v>
+        <v>44.47162468204535</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -6945,25 +6945,25 @@
         <v>2900</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1116200.908581557</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4141414141414142</v>
+        <v>-1</v>
       </c>
       <c r="G210" t="n">
-        <v>51.025344888966</v>
+        <v>56.57205608299282</v>
       </c>
       <c r="H210" t="n">
-        <v>1395.130548249831</v>
+        <v>2536.951607116789</v>
       </c>
       <c r="I210" t="n">
-        <v>0.04837253180190042</v>
+        <v>51.85344913590854</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -6976,25 +6976,25 @@
         <v>2900</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>130223.439334515</v>
       </c>
       <c r="F211" t="n">
-        <v>0.2828282828282829</v>
+        <v>-1</v>
       </c>
       <c r="G211" t="n">
-        <v>51.025344888966</v>
+        <v>55.59861790723448</v>
       </c>
       <c r="H211" t="n">
-        <v>1395.130548249831</v>
+        <v>13466.50305880189</v>
       </c>
       <c r="I211" t="n">
-        <v>0.04837253180190042</v>
+        <v>30.55157534326132</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -7007,25 +7007,25 @@
         <v>2900</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>557530.9640312983</v>
       </c>
       <c r="F212" t="n">
-        <v>0.8080808080808082</v>
+        <v>-1</v>
       </c>
       <c r="G212" t="n">
-        <v>51.025344888966</v>
+        <v>56.43661572024003</v>
       </c>
       <c r="H212" t="n">
-        <v>1395.130548249831</v>
+        <v>4851.304509753745</v>
       </c>
       <c r="I212" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.41342462036679</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -7038,25 +7038,25 @@
         <v>2900</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>134564.2206456655</v>
       </c>
       <c r="F213" t="n">
-        <v>0.08080808080808081</v>
+        <v>-1</v>
       </c>
       <c r="G213" t="n">
-        <v>53.0566677326438</v>
+        <v>55.62634855016218</v>
       </c>
       <c r="H213" t="n">
-        <v>3165.497520732829</v>
+        <v>13240.7104610494</v>
       </c>
       <c r="I213" t="n">
-        <v>0.04703484512002578</v>
+        <v>30.99926926706766</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -7069,25 +7069,25 @@
         <v>2900</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>474840.9783547462</v>
       </c>
       <c r="F214" t="n">
-        <v>0.9393939393939394</v>
+        <v>-1</v>
       </c>
       <c r="G214" t="n">
-        <v>51.025344888966</v>
+        <v>56.40252303631303</v>
       </c>
       <c r="H214" t="n">
-        <v>1395.130548249831</v>
+        <v>5504.923304623593</v>
       </c>
       <c r="I214" t="n">
-        <v>0.04837253180190042</v>
+        <v>46.16363267849342</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -7100,25 +7100,25 @@
         <v>2900</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>182312.815068321</v>
       </c>
       <c r="F215" t="n">
-        <v>0.2626262626262627</v>
+        <v>-1</v>
       </c>
       <c r="G215" t="n">
-        <v>51.025344888966</v>
+        <v>55.90475240329003</v>
       </c>
       <c r="H215" t="n">
-        <v>1395.130548249831</v>
+        <v>10982.11741215913</v>
       </c>
       <c r="I215" t="n">
-        <v>0.04837253180190042</v>
+        <v>35.47854664936854</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -7131,25 +7131,25 @@
         <v>2900</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1165809.837851849</v>
       </c>
       <c r="F216" t="n">
-        <v>0.5151515151515152</v>
+        <v>-1</v>
       </c>
       <c r="G216" t="n">
-        <v>51.025344888966</v>
+        <v>56.57844939629092</v>
       </c>
       <c r="H216" t="n">
-        <v>1395.130548249831</v>
+        <v>2436.704740125633</v>
       </c>
       <c r="I216" t="n">
-        <v>0.04837253180190042</v>
+        <v>52.04629675983714</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -7162,25 +7162,25 @@
         <v>2900</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>286491.5665359331</v>
       </c>
       <c r="F217" t="n">
-        <v>0.05050505050505051</v>
+        <v>-1</v>
       </c>
       <c r="G217" t="n">
-        <v>54.39570731708839</v>
+        <v>56.30653689342641</v>
       </c>
       <c r="H217" t="n">
-        <v>6793.410151930256</v>
+        <v>7511.663174149801</v>
       </c>
       <c r="I217" t="n">
-        <v>0.04147693030744962</v>
+        <v>42.33520770517173</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -7193,25 +7193,25 @@
         <v>2900</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>373307.1927589431</v>
       </c>
       <c r="F218" t="n">
-        <v>0.2929292929292929</v>
+        <v>-1</v>
       </c>
       <c r="G218" t="n">
-        <v>51.025344888966</v>
+        <v>56.35408648925152</v>
       </c>
       <c r="H218" t="n">
-        <v>1395.130548249831</v>
+        <v>6483.174973935404</v>
       </c>
       <c r="I218" t="n">
-        <v>0.04837253180190042</v>
+        <v>44.29569547171791</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -7224,25 +7224,25 @@
         <v>2900</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>538737.7854684455</v>
       </c>
       <c r="F219" t="n">
-        <v>0.1212121212121212</v>
+        <v>-1</v>
       </c>
       <c r="G219" t="n">
-        <v>51.77290478110992</v>
+        <v>56.43046961033206</v>
       </c>
       <c r="H219" t="n">
-        <v>2036.537536512178</v>
+        <v>4989.438329922244</v>
       </c>
       <c r="I219" t="n">
-        <v>0.04790275791560505</v>
+        <v>47.15035630443569</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -7255,25 +7255,25 @@
         <v>2900</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>657318.3128313615</v>
       </c>
       <c r="F220" t="n">
-        <v>0.9595959595959597</v>
+        <v>-1</v>
       </c>
       <c r="G220" t="n">
-        <v>51.025344888966</v>
+        <v>56.47293456089912</v>
       </c>
       <c r="H220" t="n">
-        <v>1395.130548249831</v>
+        <v>4207.403072223452</v>
       </c>
       <c r="I220" t="n">
-        <v>0.04837253180190042</v>
+        <v>48.6473689056125</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -7286,25 +7286,25 @@
         <v>2900</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>542496.421181016</v>
       </c>
       <c r="F221" t="n">
-        <v>0.5252525252525253</v>
+        <v>-1</v>
       </c>
       <c r="G221" t="n">
-        <v>51.025344888966</v>
+        <v>56.43194011180024</v>
       </c>
       <c r="H221" t="n">
-        <v>1395.130548249831</v>
+        <v>4961.194293138628</v>
       </c>
       <c r="I221" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.20435934448561</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -7317,25 +7317,25 @@
         <v>2900</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>34726.25048920401</v>
       </c>
       <c r="F222" t="n">
-        <v>0.8282828282828284</v>
+        <v>-1</v>
       </c>
       <c r="G222" t="n">
-        <v>51.025344888966</v>
+        <v>54.89108440698057</v>
       </c>
       <c r="H222" t="n">
-        <v>1395.130548249831</v>
+        <v>19195.62044160338</v>
       </c>
       <c r="I222" t="n">
-        <v>0.04837253180190042</v>
+        <v>19.1881613731897</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -7348,25 +7348,25 @@
         <v>2900</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>82474.84491185953</v>
       </c>
       <c r="F223" t="n">
-        <v>0.8181818181818182</v>
+        <v>-1</v>
       </c>
       <c r="G223" t="n">
-        <v>51.025344888966</v>
+        <v>55.26723794665998</v>
       </c>
       <c r="H223" t="n">
-        <v>1395.130548249831</v>
+        <v>16134.25071340018</v>
       </c>
       <c r="I223" t="n">
-        <v>0.04837253180190042</v>
+        <v>25.25831413089524</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -7379,25 +7379,25 @@
         <v>2900</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>156268.127201418</v>
       </c>
       <c r="F224" t="n">
-        <v>0.3333333333333334</v>
+        <v>-1</v>
       </c>
       <c r="G224" t="n">
-        <v>51.025344888966</v>
+        <v>55.75881388601903</v>
       </c>
       <c r="H224" t="n">
-        <v>1395.130548249831</v>
+        <v>12169.78103665083</v>
       </c>
       <c r="I224" t="n">
-        <v>0.04837253180190042</v>
+        <v>33.12361139222876</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -7410,25 +7410,25 @@
         <v>2900</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>467323.7069296051</v>
       </c>
       <c r="F225" t="n">
-        <v>0.5757575757575758</v>
+        <v>-1</v>
       </c>
       <c r="G225" t="n">
-        <v>51.025344888966</v>
+        <v>56.39899662675005</v>
       </c>
       <c r="H225" t="n">
-        <v>1395.130548249831</v>
+        <v>5569.648868783016</v>
       </c>
       <c r="I225" t="n">
-        <v>0.04837253180190042</v>
+        <v>46.03971985878378</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -7441,25 +7441,25 @@
         <v>2900</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>843351.7975949544</v>
       </c>
       <c r="F226" t="n">
-        <v>0.686868686868687</v>
+        <v>-1</v>
       </c>
       <c r="G226" t="n">
-        <v>51.025344888966</v>
+        <v>56.52373027662884</v>
       </c>
       <c r="H226" t="n">
-        <v>1395.130548249831</v>
+        <v>3333.08116093722</v>
       </c>
       <c r="I226" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.32436097172192</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -7472,25 +7472,25 @@
         <v>2900</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>169290.4711348696</v>
       </c>
       <c r="F227" t="n">
-        <v>0.393939393939394</v>
+        <v>-1</v>
       </c>
       <c r="G227" t="n">
-        <v>51.025344888966</v>
+        <v>55.83393280028828</v>
       </c>
       <c r="H227" t="n">
-        <v>1395.130548249831</v>
+        <v>11562.93296344567</v>
       </c>
       <c r="I227" t="n">
-        <v>0.04837253180190042</v>
+        <v>34.32743829052806</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -7503,25 +7503,25 @@
         <v>2900</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>824748.4491185951</v>
       </c>
       <c r="F228" t="n">
-        <v>0.2424242424242424</v>
+        <v>-1</v>
       </c>
       <c r="G228" t="n">
-        <v>51.025344888966</v>
+        <v>56.51877384961574</v>
       </c>
       <c r="H228" t="n">
-        <v>1395.130548249831</v>
+        <v>3405.945475402894</v>
       </c>
       <c r="I228" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.18388045372191</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -7534,25 +7534,25 @@
         <v>2900</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>651117.1966725751</v>
       </c>
       <c r="F229" t="n">
-        <v>0.2525252525252525</v>
+        <v>-1</v>
       </c>
       <c r="G229" t="n">
-        <v>51.025344888966</v>
+        <v>56.470689396377</v>
       </c>
       <c r="H229" t="n">
-        <v>1395.130548249831</v>
+        <v>4243.081531815159</v>
       </c>
       <c r="I229" t="n">
-        <v>0.04837253180190042</v>
+        <v>48.5787635366551</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -7565,25 +7565,25 @@
         <v>2900</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>580082.7783067216</v>
       </c>
       <c r="F230" t="n">
-        <v>0.5353535353535354</v>
+        <v>-1</v>
       </c>
       <c r="G230" t="n">
-        <v>51.025344888966</v>
+        <v>56.44627757552687</v>
       </c>
       <c r="H230" t="n">
-        <v>1395.130548249831</v>
+        <v>4692.91651186383</v>
       </c>
       <c r="I230" t="n">
-        <v>0.04837253180190042</v>
+        <v>47.71768046991097</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -7596,25 +7596,25 @@
         <v>2900</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>892960.7268652457</v>
       </c>
       <c r="F231" t="n">
-        <v>0.797979797979798</v>
+        <v>-1</v>
       </c>
       <c r="G231" t="n">
-        <v>51.025344888966</v>
+        <v>56.53541002755899</v>
       </c>
       <c r="H231" t="n">
-        <v>1395.130548249831</v>
+        <v>3157.723900864344</v>
       </c>
       <c r="I231" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.6621967215605</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -7627,25 +7627,25 @@
         <v>2900</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>497392.7926301694</v>
       </c>
       <c r="F232" t="n">
-        <v>0.7272727272727273</v>
+        <v>-1</v>
       </c>
       <c r="G232" t="n">
-        <v>51.025344888966</v>
+        <v>56.41268589020504</v>
       </c>
       <c r="H232" t="n">
-        <v>1395.130548249831</v>
+        <v>5318.219212223875</v>
       </c>
       <c r="I232" t="n">
-        <v>0.04837253180190042</v>
+        <v>46.52105608910043</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -7658,25 +7658,25 @@
         <v>2900</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>638714.9643550023</v>
       </c>
       <c r="F233" t="n">
-        <v>0.7676767676767677</v>
+        <v>-1</v>
       </c>
       <c r="G233" t="n">
-        <v>51.025344888966</v>
+        <v>56.46667048821903</v>
       </c>
       <c r="H233" t="n">
-        <v>1395.130548249831</v>
+        <v>4316.415709938901</v>
       </c>
       <c r="I233" t="n">
-        <v>0.04837253180190042</v>
+        <v>48.43834661389461</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -7689,25 +7689,25 @@
         <v>2900</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>108519.5327787625</v>
       </c>
       <c r="F234" t="n">
-        <v>0.6363636363636365</v>
+        <v>-1</v>
       </c>
       <c r="G234" t="n">
-        <v>51.025344888966</v>
+        <v>55.45292930818515</v>
       </c>
       <c r="H234" t="n">
-        <v>1395.130548249831</v>
+        <v>14633.03764904024</v>
       </c>
       <c r="I234" t="n">
-        <v>0.04837253180190042</v>
+        <v>28.23618898329628</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -7720,25 +7720,25 @@
         <v>2900</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>416715.0058704481</v>
       </c>
       <c r="F235" t="n">
-        <v>0.4242424242424243</v>
+        <v>-1</v>
       </c>
       <c r="G235" t="n">
-        <v>51.025344888966</v>
+        <v>56.37574851042258</v>
       </c>
       <c r="H235" t="n">
-        <v>1395.130548249831</v>
+        <v>6036.510838149065</v>
       </c>
       <c r="I235" t="n">
-        <v>0.04837253180190042</v>
+        <v>45.14813112224097</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -7751,25 +7751,25 @@
         <v>2900</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>243083.7534244281</v>
       </c>
       <c r="F236" t="n">
-        <v>0.696969696969697</v>
+        <v>-1</v>
       </c>
       <c r="G236" t="n">
-        <v>51.025344888966</v>
+        <v>56.1855249090674</v>
       </c>
       <c r="H236" t="n">
-        <v>1395.130548249831</v>
+        <v>8661.496882026373</v>
       </c>
       <c r="I236" t="n">
-        <v>0.04837253180190042</v>
+        <v>40.07556079109713</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -7782,25 +7782,25 @@
         <v>2900</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>806145.1006422358</v>
       </c>
       <c r="F237" t="n">
-        <v>0.9494949494949496</v>
+        <v>-1</v>
       </c>
       <c r="G237" t="n">
-        <v>51.025344888966</v>
+        <v>56.5149844400439</v>
       </c>
       <c r="H237" t="n">
-        <v>1395.130548249831</v>
+        <v>3481.620620425673</v>
       </c>
       <c r="I237" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.03933894465224</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -7813,25 +7813,25 @@
         <v>2900</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>295173.129158234</v>
       </c>
       <c r="F238" t="n">
-        <v>0.595959595959596</v>
+        <v>-1</v>
       </c>
       <c r="G238" t="n">
-        <v>51.025344888966</v>
+        <v>56.31183704798567</v>
       </c>
       <c r="H238" t="n">
-        <v>1395.130548249831</v>
+        <v>7398.506446086461</v>
       </c>
       <c r="I238" t="n">
-        <v>0.04837253180190042</v>
+        <v>42.55097388582749</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -7844,25 +7844,25 @@
         <v>2900</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>911564.0753416051</v>
       </c>
       <c r="F239" t="n">
-        <v>0.8383838383838385</v>
+        <v>-1</v>
       </c>
       <c r="G239" t="n">
-        <v>51.025344888966</v>
+        <v>56.53916786431787</v>
       </c>
       <c r="H239" t="n">
-        <v>1395.130548249831</v>
+        <v>3094.744417864299</v>
       </c>
       <c r="I239" t="n">
-        <v>0.04837253180190042</v>
+        <v>50.78309334219454</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -7878,22 +7878,22 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>0.1616161616161616</v>
+        <v>-1</v>
       </c>
       <c r="G240" t="n">
-        <v>51.12379545035076</v>
+        <v>54.58431692148883</v>
       </c>
       <c r="H240" t="n">
-        <v>1480.80704848043</v>
+        <v>21741.68594864994</v>
       </c>
       <c r="I240" t="n">
-        <v>0.04830910602062892</v>
+        <v>14.14583552876845</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -7906,25 +7906,25 @@
         <v>2900</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>713128.3582604394</v>
       </c>
       <c r="F241" t="n">
-        <v>0.7474747474747475</v>
+        <v>-1</v>
       </c>
       <c r="G241" t="n">
-        <v>51.025344888966</v>
+        <v>56.48976345094013</v>
       </c>
       <c r="H241" t="n">
-        <v>1395.130548249831</v>
+        <v>3906.451490101827</v>
       </c>
       <c r="I241" t="n">
-        <v>0.04837253180190042</v>
+        <v>49.223953142248</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -7937,25 +7937,25 @@
         <v>2900</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>190994.3776906221</v>
       </c>
       <c r="F242" t="n">
-        <v>0.1111111111111111</v>
+        <v>-1</v>
       </c>
       <c r="G242" t="n">
-        <v>51.99176654014389</v>
+        <v>55.95094550910946</v>
       </c>
       <c r="H242" t="n">
-        <v>2272.516203187189</v>
+        <v>10609.3781031763</v>
       </c>
       <c r="I242" t="n">
-        <v>0.04767271125630516</v>
+        <v>36.21801679203955</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -7968,25 +7968,25 @@
         <v>2900</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>750335.055213158</v>
       </c>
       <c r="F243" t="n">
-        <v>0.1818181818181818</v>
+        <v>-1</v>
       </c>
       <c r="G243" t="n">
-        <v>51.12379545035076</v>
+        <v>56.49998442413684</v>
       </c>
       <c r="H243" t="n">
-        <v>1480.80704848043</v>
+        <v>3725.794949061194</v>
       </c>
       <c r="I243" t="n">
-        <v>0.04830910602062892</v>
+        <v>49.57018651993805</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -7999,25 +7999,25 @@
         <v>2900</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>112860.314089913</v>
       </c>
       <c r="F244" t="n">
-        <v>0.7373737373737375</v>
+        <v>-1</v>
       </c>
       <c r="G244" t="n">
-        <v>51.025344888966</v>
+        <v>55.48295330031296</v>
       </c>
       <c r="H244" t="n">
-        <v>1395.130548249831</v>
+        <v>14392.92737815817</v>
       </c>
       <c r="I244" t="n">
-        <v>0.04837253180190042</v>
+        <v>28.71280643391661</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -8030,25 +8030,25 @@
         <v>2900</v>
       </c>
       <c r="E245" t="n">
-        <v>1072793.095470052</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>-1</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="G245" t="n">
-        <v>56.68049267723759</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H245" t="n">
-        <v>2640.981414812572</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I245" t="n">
-        <v>0.05165412374064176</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -8061,25 +8061,25 @@
         <v>2900</v>
       </c>
       <c r="E246" t="n">
-        <v>1178212.070169422</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>-1</v>
+        <v>0.6161616161616162</v>
       </c>
       <c r="G246" t="n">
-        <v>56.68410045000375</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H246" t="n">
-        <v>2417.163433815813</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I246" t="n">
-        <v>0.05208385519669351</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -8092,25 +8092,25 @@
         <v>2900</v>
       </c>
       <c r="E247" t="n">
-        <v>1172010.954010635</v>
+        <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>-1</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="G247" t="n">
-        <v>56.68390104686695</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H247" t="n">
-        <v>2424.184287366098</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I247" t="n">
-        <v>0.05207036300450743</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -8123,25 +8123,25 @@
         <v>2900</v>
       </c>
       <c r="E248" t="n">
-        <v>781340.6360070902</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>-1</v>
+        <v>0.9797979797979799</v>
       </c>
       <c r="G248" t="n">
-        <v>56.66539073758901</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H248" t="n">
-        <v>3586.763275745398</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I248" t="n">
-        <v>0.04983744483730167</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -8154,25 +8154,25 @@
         <v>2900</v>
       </c>
       <c r="E249" t="n">
-        <v>942569.6561355372</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>-1</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G249" t="n">
-        <v>56.67449418787358</v>
+        <v>53.7104138726387</v>
       </c>
       <c r="H249" t="n">
-        <v>2993.547237371521</v>
+        <v>5209.02041574461</v>
       </c>
       <c r="I249" t="n">
-        <v>0.05097654249276338</v>
+        <v>44.02188853684389</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -8185,25 +8185,25 @@
         <v>2900</v>
       </c>
       <c r="E250" t="n">
-        <v>954971.8884531101</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>-1</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G250" t="n">
-        <v>56.67507159022423</v>
+        <v>54.49794997979064</v>
       </c>
       <c r="H250" t="n">
-        <v>2955.220046466073</v>
+        <v>10634.42007077604</v>
       </c>
       <c r="I250" t="n">
-        <v>0.05105012745363718</v>
+        <v>34.71844441752064</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -8216,25 +8216,25 @@
         <v>2900</v>
       </c>
       <c r="E251" t="n">
-        <v>1109999.792422771</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>-1</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="G251" t="n">
-        <v>56.68196107412088</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H251" t="n">
-        <v>2553.49588530755</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I251" t="n">
-        <v>0.0518222399689018</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -8247,25 +8247,25 @@
         <v>2900</v>
       </c>
       <c r="E252" t="n">
-        <v>669720.5451489342</v>
+        <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>-1</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="G252" t="n">
-        <v>56.65837316718935</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H252" t="n">
-        <v>4137.208664488034</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I252" t="n">
-        <v>0.04878192422973256</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -8278,25 +8278,25 @@
         <v>2900</v>
       </c>
       <c r="E253" t="n">
-        <v>1066591.979311266</v>
+        <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>-1</v>
+        <v>0.3434343434343435</v>
       </c>
       <c r="G253" t="n">
-        <v>56.68024142879938</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H253" t="n">
-        <v>2656.237800050656</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I253" t="n">
-        <v>0.05162480878770818</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -8309,25 +8309,25 @@
         <v>2900</v>
       </c>
       <c r="E254" t="n">
-        <v>1054189.746993693</v>
+        <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>-1</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="G254" t="n">
-        <v>56.67973224525753</v>
+        <v>51.0633353116607</v>
       </c>
       <c r="H254" t="n">
-        <v>2687.340671586911</v>
+        <v>1480.80704848043</v>
       </c>
       <c r="I254" t="n">
-        <v>0.05156504830177741</v>
+        <v>48.30910602062895</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -8340,25 +8340,25 @@
         <v>2900</v>
       </c>
       <c r="E255" t="n">
-        <v>917765.1915003917</v>
+        <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>-1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="G255" t="n">
-        <v>56.67361906009078</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H255" t="n">
-        <v>3074.31262676658</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I255" t="n">
-        <v>0.05082231846862658</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -8371,25 +8371,25 @@
         <v>2900</v>
       </c>
       <c r="E256" t="n">
-        <v>675921.6613077208</v>
+        <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>-1</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="G256" t="n">
-        <v>56.65876344062507</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H256" t="n">
-        <v>4102.924508474816</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I256" t="n">
-        <v>0.04884755559877484</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -8402,25 +8402,25 @@
         <v>2900</v>
       </c>
       <c r="E257" t="n">
-        <v>905362.9591828187</v>
+        <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>-1</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="G257" t="n">
-        <v>56.67300666801709</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H257" t="n">
-        <v>3115.4547434807</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I257" t="n">
-        <v>0.05074333546601673</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -8433,25 +8433,25 @@
         <v>2900</v>
       </c>
       <c r="E258" t="n">
-        <v>1091396.443946412</v>
+        <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>-1</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="G258" t="n">
-        <v>56.68124113631831</v>
+        <v>52.52495773755702</v>
       </c>
       <c r="H258" t="n">
-        <v>2596.488440837139</v>
+        <v>2662.543897402251</v>
       </c>
       <c r="I258" t="n">
-        <v>0.05173961673900639</v>
+        <v>47.57275522176785</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -8464,25 +8464,25 @@
         <v>2900</v>
       </c>
       <c r="E259" t="n">
-        <v>861955.1460713138</v>
+        <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>-1</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="G259" t="n">
-        <v>56.67062599061922</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H259" t="n">
-        <v>3267.557709748629</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I259" t="n">
-        <v>0.05045097770986243</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -8495,25 +8495,25 @@
         <v>2900</v>
       </c>
       <c r="E260" t="n">
-        <v>936368.5399767508</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>-1</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="G260" t="n">
-        <v>56.67405929626911</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H260" t="n">
-        <v>3013.721688961359</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I260" t="n">
-        <v>0.05093749982842249</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -8526,25 +8526,25 @@
         <v>2900</v>
       </c>
       <c r="E261" t="n">
-        <v>768938.4036895173</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>-1</v>
+        <v>0.5656565656565657</v>
       </c>
       <c r="G261" t="n">
-        <v>56.66425303430641</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H261" t="n">
-        <v>3641.102858139988</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I261" t="n">
-        <v>0.04973255035664968</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -8557,25 +8557,25 @@
         <v>2900</v>
       </c>
       <c r="E262" t="n">
-        <v>626312.7320374293</v>
+        <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>-1</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="G262" t="n">
-        <v>56.65532229713481</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H262" t="n">
-        <v>4391.914224581619</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I262" t="n">
-        <v>0.04829385294716138</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -8588,25 +8588,25 @@
         <v>2900</v>
       </c>
       <c r="E263" t="n">
-        <v>1103798.676263984</v>
+        <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>-1</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="G263" t="n">
-        <v>56.68172323076406</v>
+        <v>51.44896655324987</v>
       </c>
       <c r="H263" t="n">
-        <v>2567.646670430119</v>
+        <v>1683.925699160996</v>
       </c>
       <c r="I263" t="n">
-        <v>0.05179504399913257</v>
+        <v>48.31694642320684</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -8619,25 +8619,25 @@
         <v>2900</v>
       </c>
       <c r="E264" t="n">
-        <v>632513.8481962158</v>
+        <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>-1</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="G264" t="n">
-        <v>56.65565750664638</v>
+        <v>54.44639661232775</v>
       </c>
       <c r="H264" t="n">
-        <v>4353.855806272697</v>
+        <v>8221.380839928041</v>
       </c>
       <c r="I264" t="n">
-        <v>0.0483666115202265</v>
+        <v>39.15502698703233</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -8650,25 +8650,25 @@
         <v>2900</v>
       </c>
       <c r="E265" t="n">
-        <v>992178.5854058288</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>-1</v>
+        <v>0.8585858585858587</v>
       </c>
       <c r="G265" t="n">
-        <v>56.6772204517948</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H265" t="n">
-        <v>2849.454335177881</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I265" t="n">
-        <v>0.05125394765882731</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -8681,25 +8681,25 @@
         <v>2900</v>
       </c>
       <c r="E266" t="n">
-        <v>1153407.605534276</v>
+        <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>-1</v>
+        <v>0.7070707070707072</v>
       </c>
       <c r="G266" t="n">
-        <v>56.68317117937617</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H266" t="n">
-        <v>2462.09652049243</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I266" t="n">
-        <v>0.05199740420424755</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -8712,25 +8712,25 @@
         <v>2900</v>
       </c>
       <c r="E267" t="n">
-        <v>948770.7722943235</v>
+        <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>-1</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="G267" t="n">
-        <v>56.67478406795208</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H267" t="n">
-        <v>2974.258440690549</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I267" t="n">
-        <v>0.05101357465021029</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -8743,25 +8743,25 @@
         <v>2900</v>
       </c>
       <c r="E268" t="n">
-        <v>961173.0046118966</v>
+        <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>-1</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="G268" t="n">
-        <v>56.67573559703194</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H268" t="n">
-        <v>2937.573297700369</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I268" t="n">
-        <v>0.05108459222872141</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -8774,25 +8774,25 @@
         <v>2900</v>
       </c>
       <c r="E269" t="n">
-        <v>1029385.282358547</v>
+        <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>-1</v>
+        <v>0.4040404040404041</v>
       </c>
       <c r="G269" t="n">
-        <v>56.67879830643131</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H269" t="n">
-        <v>2751.813183180004</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I269" t="n">
-        <v>0.05144129291948224</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -8805,25 +8805,25 @@
         <v>2900</v>
       </c>
       <c r="E270" t="n">
-        <v>688323.8936252937</v>
+        <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>-1</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="G270" t="n">
-        <v>56.65944394853116</v>
+        <v>51.55417992365522</v>
       </c>
       <c r="H270" t="n">
-        <v>4035.306151950784</v>
+        <v>1929.588188143455</v>
       </c>
       <c r="I270" t="n">
-        <v>0.04897698999757925</v>
+        <v>47.96523947873552</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -8836,25 +8836,25 @@
         <v>2900</v>
       </c>
       <c r="E271" t="n">
-        <v>868156.2622301002</v>
+        <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>-1</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="G271" t="n">
-        <v>56.6705550298608</v>
+        <v>54.83682484127327</v>
       </c>
       <c r="H271" t="n">
-        <v>3241.410258382828</v>
+        <v>12327.74859040452</v>
       </c>
       <c r="I271" t="n">
-        <v>0.05050052444958403</v>
+        <v>31.90781035892751</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -8867,25 +8867,25 @@
         <v>2900</v>
       </c>
       <c r="E272" t="n">
-        <v>1078994.211628839</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>-1</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="G272" t="n">
-        <v>56.68074171425983</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H272" t="n">
-        <v>2625.917833200137</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I272" t="n">
-        <v>0.05168306926817517</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -8898,25 +8898,25 @@
         <v>2900</v>
       </c>
       <c r="E273" t="n">
-        <v>967374.120770683</v>
+        <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>-1</v>
+        <v>0.8787878787878789</v>
       </c>
       <c r="G273" t="n">
-        <v>56.67591238954119</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H273" t="n">
-        <v>2918.764488521347</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I273" t="n">
-        <v>0.05112042210434328</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -8929,25 +8929,25 @@
         <v>2900</v>
       </c>
       <c r="E274" t="n">
-        <v>979776.3530882559</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>-1</v>
+        <v>0.7171717171717172</v>
       </c>
       <c r="G274" t="n">
-        <v>56.67608763337426</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H274" t="n">
-        <v>2891.165325278943</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I274" t="n">
-        <v>0.05117294537509536</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -8960,25 +8960,25 @@
         <v>2900</v>
       </c>
       <c r="E275" t="n">
-        <v>1010781.933882188</v>
+        <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>-1</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="G275" t="n">
-        <v>56.67771541702132</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H275" t="n">
-        <v>2802.454146166868</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I275" t="n">
-        <v>0.05134360089919509</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -8991,25 +8991,25 @@
         <v>2900</v>
       </c>
       <c r="E276" t="n">
-        <v>923966.3076591779</v>
+        <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>-1</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="G276" t="n">
-        <v>56.67372882379519</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H276" t="n">
-        <v>3049.818155163679</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I276" t="n">
-        <v>0.05086867748430641</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -9022,25 +9022,25 @@
         <v>2900</v>
       </c>
       <c r="E277" t="n">
-        <v>1023184.166199761</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>-1</v>
+        <v>0.3535353535353536</v>
       </c>
       <c r="G277" t="n">
-        <v>56.67825506213479</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H277" t="n">
-        <v>2768.558863955212</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I277" t="n">
-        <v>0.05140871274119792</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -9053,25 +9053,25 @@
         <v>2900</v>
       </c>
       <c r="E278" t="n">
-        <v>700726.1259428666</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>-1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G278" t="n">
-        <v>56.66048631504079</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H278" t="n">
-        <v>3970.11960546915</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I278" t="n">
-        <v>0.04910230053072178</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -9084,25 +9084,25 @@
         <v>2900</v>
       </c>
       <c r="E279" t="n">
-        <v>1184413.186328208</v>
+        <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>-1</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="G279" t="n">
-        <v>56.68425231918151</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H279" t="n">
-        <v>2404.739324975647</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I279" t="n">
-        <v>0.05210767813730683</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -9115,25 +9115,25 @@
         <v>2900</v>
       </c>
       <c r="E280" t="n">
-        <v>849552.9137537408</v>
+        <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>-1</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="G280" t="n">
-        <v>56.66931784012294</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H280" t="n">
-        <v>3308.14722744577</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I280" t="n">
-        <v>0.05037209870694535</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -9146,25 +9146,25 @@
         <v>2900</v>
       </c>
       <c r="E281" t="n">
-        <v>756536.1713719442</v>
+        <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>-1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="G281" t="n">
-        <v>56.66354552571458</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H281" t="n">
-        <v>3697.166530294654</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I281" t="n">
-        <v>0.04962506682121812</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -9177,25 +9177,25 @@
         <v>2900</v>
       </c>
       <c r="E282" t="n">
-        <v>812346.2168010224</v>
+        <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>-1</v>
+        <v>0.3838383838383839</v>
       </c>
       <c r="G282" t="n">
-        <v>56.66734819694985</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H282" t="n">
-        <v>3456.080579681085</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I282" t="n">
-        <v>0.05008832494771949</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -9208,25 +9208,25 @@
         <v>2900</v>
       </c>
       <c r="E283" t="n">
-        <v>1035586.398517334</v>
+        <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>-1</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="G283" t="n">
-        <v>56.67895706245374</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H283" t="n">
-        <v>2735.702502070864</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I283" t="n">
-        <v>0.05147211944004597</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -9239,25 +9239,25 @@
         <v>2900</v>
       </c>
       <c r="E284" t="n">
-        <v>787541.7521658764</v>
+        <v>0</v>
       </c>
       <c r="F284" t="n">
-        <v>-1</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="G284" t="n">
-        <v>56.66574084723335</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H284" t="n">
-        <v>3560.003458535251</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I284" t="n">
-        <v>0.04988875944469699</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -9270,25 +9270,25 @@
         <v>2900</v>
       </c>
       <c r="E285" t="n">
-        <v>985977.4692470422</v>
+        <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>-1</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="G285" t="n">
-        <v>56.67636562516513</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H285" t="n">
-        <v>2873.077183495716</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I285" t="n">
-        <v>0.05120768028404287</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -9301,25 +9301,25 @@
         <v>2900</v>
       </c>
       <c r="E286" t="n">
-        <v>1203016.534804567</v>
+        <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>-1</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="G286" t="n">
-        <v>56.68477089931686</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H286" t="n">
-        <v>2368.331043072458</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I286" t="n">
-        <v>0.05217743978705382</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -9332,25 +9332,25 @@
         <v>2900</v>
       </c>
       <c r="E287" t="n">
-        <v>1047988.630834906</v>
+        <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>-1</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="G287" t="n">
-        <v>56.67946754673265</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H287" t="n">
-        <v>2703.150764410212</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I287" t="n">
-        <v>0.0515346586482671</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -9363,25 +9363,25 @@
         <v>2900</v>
       </c>
       <c r="E288" t="n">
-        <v>1122402.024740344</v>
+        <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>-1</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G288" t="n">
-        <v>56.68209245645519</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H288" t="n">
-        <v>2523.194175767794</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I288" t="n">
-        <v>0.05187989001463664</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -9394,25 +9394,25 @@
         <v>2900</v>
       </c>
       <c r="E289" t="n">
-        <v>1085195.327787625</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>-1</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="G289" t="n">
-        <v>56.6809968574137</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H289" t="n">
-        <v>2611.184858067354</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I289" t="n">
-        <v>0.05171137508051973</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -9425,25 +9425,25 @@
         <v>2900</v>
       </c>
       <c r="E290" t="n">
-        <v>762737.2875307308</v>
+        <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>-1</v>
+        <v>0.7575757575757577</v>
       </c>
       <c r="G290" t="n">
-        <v>56.66390362719024</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H290" t="n">
-        <v>3668.938525434899</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I290" t="n">
-        <v>0.04967918416420861</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -9456,25 +9456,25 @@
         <v>2900</v>
       </c>
       <c r="E291" t="n">
-        <v>1227820.999439713</v>
+        <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>-1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G291" t="n">
-        <v>56.68558988243593</v>
+        <v>52.48562122536506</v>
       </c>
       <c r="H291" t="n">
-        <v>2322.016523561291</v>
+        <v>3026.898242887939</v>
       </c>
       <c r="I291" t="n">
-        <v>0.05226649054608069</v>
+        <v>46.85573729815827</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -9487,25 +9487,25 @@
         <v>2900</v>
       </c>
       <c r="E292" t="n">
-        <v>744133.9390543716</v>
+        <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>-1</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="G292" t="n">
-        <v>56.66282982592257</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H292" t="n">
-        <v>3754.829515559863</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I292" t="n">
-        <v>0.0495145312257048</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -9518,25 +9518,25 @@
         <v>2900</v>
       </c>
       <c r="E293" t="n">
-        <v>793742.8683246629</v>
+        <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>-1</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="G293" t="n">
-        <v>56.66632816319424</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H293" t="n">
-        <v>3532.068917545515</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I293" t="n">
-        <v>0.04994265624808597</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -9549,25 +9549,25 @@
         <v>2900</v>
       </c>
       <c r="E294" t="n">
-        <v>737932.8228955851</v>
+        <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>-1</v>
+        <v>0.8989898989898991</v>
       </c>
       <c r="G294" t="n">
-        <v>56.66246898848611</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H294" t="n">
-        <v>3784.276670334546</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I294" t="n">
-        <v>0.0494580887339874</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -9580,25 +9580,25 @@
         <v>2900</v>
       </c>
       <c r="E295" t="n">
-        <v>1134804.257057917</v>
+        <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>-1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G295" t="n">
-        <v>56.68238340553353</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H295" t="n">
-        <v>2501.276528956058</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I295" t="n">
-        <v>0.05192188924701584</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -9611,25 +9611,25 @@
         <v>2900</v>
       </c>
       <c r="E296" t="n">
-        <v>1097597.560105198</v>
+        <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>-1</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="G296" t="n">
-        <v>56.68153528832146</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H296" t="n">
-        <v>2582.044909705169</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I296" t="n">
-        <v>0.05176745651366862</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -9642,25 +9642,25 @@
         <v>2900</v>
       </c>
       <c r="E297" t="n">
-        <v>855754.0299125273</v>
+        <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>56.67030308083989</v>
+        <v>54.58431692148881</v>
       </c>
       <c r="H297" t="n">
-        <v>3290.704574803025</v>
+        <v>21741.68594864948</v>
       </c>
       <c r="I297" t="n">
-        <v>0.05040656659972227</v>
+        <v>14.14583552876929</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -9673,25 +9673,25 @@
         <v>2900</v>
       </c>
       <c r="E298" t="n">
-        <v>719329.4744192258</v>
+        <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>-1</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G298" t="n">
-        <v>56.66133572797417</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H298" t="n">
-        <v>3875.10032599379</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I298" t="n">
-        <v>0.04928400787613663</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -9704,25 +9704,25 @@
         <v>2900</v>
       </c>
       <c r="E299" t="n">
-        <v>1128603.14089913</v>
+        <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>-1</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G299" t="n">
-        <v>56.68232255949815</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H299" t="n">
-        <v>2509.609067224411</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I299" t="n">
-        <v>0.05190600067603433</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -9735,25 +9735,25 @@
         <v>2900</v>
       </c>
       <c r="E300" t="n">
-        <v>1190614.302486994</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>-1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G300" t="n">
-        <v>56.68433471382376</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H300" t="n">
-        <v>2392.334616893283</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I300" t="n">
-        <v>0.05213127778598332</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -9766,25 +9766,25 @@
         <v>2900</v>
       </c>
       <c r="E301" t="n">
-        <v>1141005.373216703</v>
+        <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>-1</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G301" t="n">
-        <v>56.682677108292</v>
+        <v>54.46147090025082</v>
       </c>
       <c r="H301" t="n">
-        <v>2487.953471930761</v>
+        <v>18632.89871838643</v>
       </c>
       <c r="I301" t="n">
-        <v>0.05194761202886361</v>
+        <v>19.80518297963989</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -9797,25 +9797,25 @@
         <v>2900</v>
       </c>
       <c r="E302" t="n">
-        <v>663519.4289901479</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>-1</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="G302" t="n">
-        <v>56.65799141210717</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H302" t="n">
-        <v>4172.113490539857</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I302" t="n">
-        <v>0.04871507604884587</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -9828,25 +9828,25 @@
         <v>2900</v>
       </c>
       <c r="E303" t="n">
-        <v>1209217.650963354</v>
+        <v>0</v>
       </c>
       <c r="F303" t="n">
-        <v>-1</v>
+        <v>0.9292929292929294</v>
       </c>
       <c r="G303" t="n">
-        <v>56.6849784106948</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H303" t="n">
-        <v>2356.544681262053</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I303" t="n">
-        <v>0.05220010094841927</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -9859,25 +9859,25 @@
         <v>2900</v>
       </c>
       <c r="E304" t="n">
-        <v>874357.3783888866</v>
+        <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>-1</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="G304" t="n">
-        <v>56.67152232288163</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H304" t="n">
-        <v>3221.064642318628</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I304" t="n">
-        <v>0.05054057511612236</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -9890,25 +9890,25 @@
         <v>2900</v>
       </c>
       <c r="E305" t="n">
-        <v>880558.494547673</v>
+        <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>-1</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="G305" t="n">
-        <v>56.67188190252937</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H305" t="n">
-        <v>3198.847829108341</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I305" t="n">
-        <v>0.05058325082885651</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -9921,25 +9921,25 @@
         <v>2900</v>
       </c>
       <c r="E306" t="n">
-        <v>682122.7774665073</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
-        <v>-1</v>
+        <v>0.4646464646464647</v>
       </c>
       <c r="G306" t="n">
-        <v>56.65914173655499</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H306" t="n">
-        <v>4068.975861527711</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I306" t="n">
-        <v>0.0489125814432865</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -9952,25 +9952,25 @@
         <v>2900</v>
       </c>
       <c r="E307" t="n">
-        <v>620111.615878643</v>
+        <v>0</v>
       </c>
       <c r="F307" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G307" t="n">
-        <v>56.65519792301154</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H307" t="n">
-        <v>4430.595581919822</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I307" t="n">
-        <v>0.04822012939658356</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -9983,25 +9983,25 @@
         <v>2900</v>
       </c>
       <c r="E308" t="n">
-        <v>644916.0805137887</v>
+        <v>0</v>
       </c>
       <c r="F308" t="n">
-        <v>-1</v>
+        <v>0.07070707070707072</v>
       </c>
       <c r="G308" t="n">
-        <v>56.65649596484396</v>
+        <v>53.24433945922419</v>
       </c>
       <c r="H308" t="n">
-        <v>4279.484381171912</v>
+        <v>4121.650783175743</v>
       </c>
       <c r="I308" t="n">
-        <v>0.04850905829854518</v>
+        <v>45.57826890258029</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -10014,25 +10014,25 @@
         <v>2900</v>
       </c>
       <c r="E309" t="n">
-        <v>1041787.51467612</v>
+        <v>0</v>
       </c>
       <c r="F309" t="n">
-        <v>-1</v>
+        <v>0.4141414141414142</v>
       </c>
       <c r="G309" t="n">
-        <v>56.67921913781323</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H309" t="n">
-        <v>2719.427169049934</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I309" t="n">
-        <v>0.05150338611741596</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -10045,25 +10045,25 @@
         <v>2900</v>
       </c>
       <c r="E310" t="n">
-        <v>694525.0097840801</v>
+        <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>-1</v>
+        <v>0.2828282828282829</v>
       </c>
       <c r="G310" t="n">
-        <v>56.66011395466933</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H310" t="n">
-        <v>4002.690567050909</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I310" t="n">
-        <v>0.04903990272286379</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -10076,25 +10076,25 @@
         <v>2900</v>
       </c>
       <c r="E311" t="n">
-        <v>799943.9844834494</v>
+        <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>-1</v>
+        <v>0.8080808080808082</v>
       </c>
       <c r="G311" t="n">
-        <v>56.66625609063962</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H311" t="n">
-        <v>3505.930924571194</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I311" t="n">
-        <v>0.04999210382704296</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -10107,25 +10107,25 @@
         <v>2900</v>
       </c>
       <c r="E312" t="n">
-        <v>930167.4238179644</v>
+        <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>-1</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="G312" t="n">
-        <v>56.67335107307855</v>
+        <v>52.92251698195907</v>
       </c>
       <c r="H312" t="n">
-        <v>3033.577823137894</v>
+        <v>3165.497520732828</v>
       </c>
       <c r="I312" t="n">
-        <v>0.05089885509875607</v>
+        <v>47.03484512002576</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -10138,25 +10138,25 @@
         <v>2900</v>
       </c>
       <c r="E313" t="n">
-        <v>1215418.76712214</v>
+        <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>-1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="G313" t="n">
-        <v>56.68518406835047</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H313" t="n">
-        <v>2344.898143557535</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I313" t="n">
-        <v>0.0522224939078268</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -10169,25 +10169,25 @@
         <v>2900</v>
       </c>
       <c r="E314" t="n">
-        <v>818547.3329598086</v>
+        <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>-1</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="G314" t="n">
-        <v>56.66773356580151</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H314" t="n">
-        <v>3430.921206099822</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I314" t="n">
-        <v>0.05013662818934533</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -10200,25 +10200,25 @@
         <v>2900</v>
       </c>
       <c r="E315" t="n">
-        <v>731731.7067367986</v>
+        <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>-1</v>
+        <v>0.5151515151515152</v>
       </c>
       <c r="G315" t="n">
-        <v>56.66202346445814</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H315" t="n">
-        <v>3814.075554591312</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I315" t="n">
-        <v>0.04940089765149461</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -10231,25 +10231,25 @@
         <v>2900</v>
       </c>
       <c r="E316" t="n">
-        <v>1221619.883280927</v>
+        <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>-1</v>
+        <v>0.05050505050505051</v>
       </c>
       <c r="G316" t="n">
-        <v>56.68538788726404</v>
+        <v>54.11234370964756</v>
       </c>
       <c r="H316" t="n">
-        <v>2333.389417822866</v>
+        <v>6793.410151930269</v>
       </c>
       <c r="I316" t="n">
-        <v>0.05224462251164786</v>
+        <v>41.47693030744963</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -10262,25 +10262,25 @@
         <v>2900</v>
       </c>
       <c r="E317" t="n">
-        <v>1196815.418645781</v>
+        <v>0</v>
       </c>
       <c r="F317" t="n">
-        <v>-1</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="G317" t="n">
-        <v>56.6845460700529</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H317" t="n">
-        <v>2380.261942061697</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I317" t="n">
-        <v>0.05215448814956149</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -10293,25 +10293,25 @@
         <v>2900</v>
       </c>
       <c r="E318" t="n">
-        <v>725530.5905780124</v>
+        <v>0</v>
       </c>
       <c r="F318" t="n">
-        <v>-1</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G318" t="n">
-        <v>56.66170317181162</v>
+        <v>51.69061896144716</v>
       </c>
       <c r="H318" t="n">
-        <v>3844.400151840449</v>
+        <v>2036.537536512179</v>
       </c>
       <c r="I318" t="n">
-        <v>0.04934284144935765</v>
+        <v>47.90275791560503</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -10324,25 +10324,25 @@
         <v>2900</v>
       </c>
       <c r="E319" t="n">
-        <v>706927.2421016529</v>
+        <v>0</v>
       </c>
       <c r="F319" t="n">
-        <v>-1</v>
+        <v>0.9595959595959597</v>
       </c>
       <c r="G319" t="n">
-        <v>56.66085701176659</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H319" t="n">
-        <v>3938.010113116669</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I319" t="n">
-        <v>0.04916381857568702</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -10355,25 +10355,25 @@
         <v>2900</v>
       </c>
       <c r="E320" t="n">
-        <v>973575.2369294695</v>
+        <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>-1</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="G320" t="n">
-        <v>56.67616087074545</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H320" t="n">
-        <v>2900.283713788272</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I320" t="n">
-        <v>0.05115588666221926</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -10386,25 +10386,25 @@
         <v>2900</v>
       </c>
       <c r="E321" t="n">
-        <v>1004580.817723401</v>
+        <v>0</v>
       </c>
       <c r="F321" t="n">
-        <v>-1</v>
+        <v>0.8282828282828284</v>
       </c>
       <c r="G321" t="n">
-        <v>56.67782699653186</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H321" t="n">
-        <v>2814.747864955866</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I321" t="n">
-        <v>0.05132054359429333</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -10417,25 +10417,25 @@
         <v>2900</v>
       </c>
       <c r="E322" t="n">
-        <v>1147206.48937549</v>
+        <v>0</v>
       </c>
       <c r="F322" t="n">
-        <v>-1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G322" t="n">
-        <v>56.68290063859148</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H322" t="n">
-        <v>2474.839093053104</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I322" t="n">
-        <v>0.05197281896796588</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -10448,25 +10448,25 @@
         <v>2900</v>
       </c>
       <c r="E323" t="n">
-        <v>1060390.86315248</v>
+        <v>0</v>
       </c>
       <c r="F323" t="n">
-        <v>-1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="G323" t="n">
-        <v>56.67998795577275</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H323" t="n">
-        <v>2671.689899888269</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I323" t="n">
-        <v>0.0515951188553376</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -10479,25 +10479,25 @@
         <v>2900</v>
       </c>
       <c r="E324" t="n">
-        <v>837150.6814361679</v>
+        <v>0</v>
       </c>
       <c r="F324" t="n">
-        <v>-1</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="G324" t="n">
-        <v>56.66869655067428</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H324" t="n">
-        <v>3356.906346503915</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I324" t="n">
-        <v>0.05027865222253077</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -10510,25 +10510,25 @@
         <v>2900</v>
       </c>
       <c r="E325" t="n">
-        <v>886759.6107064595</v>
+        <v>0</v>
       </c>
       <c r="F325" t="n">
-        <v>-1</v>
+        <v>0.686868686868687</v>
       </c>
       <c r="G325" t="n">
-        <v>56.67206975965276</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H325" t="n">
-        <v>3179.291615132578</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I325" t="n">
-        <v>0.05062079895551815</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -10541,25 +10541,25 @@
         <v>2900</v>
       </c>
       <c r="E326" t="n">
-        <v>998379.7015646149</v>
+        <v>0</v>
       </c>
       <c r="F326" t="n">
-        <v>-1</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="G326" t="n">
-        <v>56.6774677307554</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H326" t="n">
-        <v>2831.965290598342</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I326" t="n">
-        <v>0.05128737627508681</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -10572,25 +10572,25 @@
         <v>2900</v>
       </c>
       <c r="E327" t="n">
-        <v>1016983.050040975</v>
+        <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>-1</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="G327" t="n">
-        <v>56.67798638299627</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H327" t="n">
-        <v>2785.395174180874</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I327" t="n">
-        <v>0.05137636991583319</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -10603,25 +10603,25 @@
         <v>2900</v>
       </c>
       <c r="E328" t="n">
-        <v>1159608.721693062</v>
+        <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>-1</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="G328" t="n">
-        <v>56.6833907921217</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H328" t="n">
-        <v>2449.268215504868</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I328" t="n">
-        <v>0.0520220617837083</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -10634,25 +10634,25 @@
         <v>2900</v>
       </c>
       <c r="E329" t="n">
-        <v>899161.8430240322</v>
+        <v>0</v>
       </c>
       <c r="F329" t="n">
-        <v>-1</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="G329" t="n">
-        <v>56.67269680864766</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H329" t="n">
-        <v>3136.44643573069</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I329" t="n">
-        <v>0.05070303938677372</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -10665,25 +10665,25 @@
         <v>2900</v>
       </c>
       <c r="E330" t="n">
-        <v>830949.5652773816</v>
+        <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>-1</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="G330" t="n">
-        <v>56.66792064045012</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H330" t="n">
-        <v>3381.517888505954</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I330" t="n">
-        <v>0.05023074068590787</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -10696,25 +10696,25 @@
         <v>2900</v>
       </c>
       <c r="E331" t="n">
-        <v>775139.5198483038</v>
+        <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>-1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G331" t="n">
-        <v>56.66460683882693</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H331" t="n">
-        <v>3613.655720843717</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I331" t="n">
-        <v>0.04978517723477051</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -10727,25 +10727,25 @@
         <v>2900</v>
       </c>
       <c r="E332" t="n">
-        <v>1116200.908581557</v>
+        <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>-1</v>
+        <v>0.7676767676767677</v>
       </c>
       <c r="G332" t="n">
-        <v>56.6818602863573</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H332" t="n">
-        <v>2536.951607116792</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I332" t="n">
-        <v>0.05185344913590852</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -10758,25 +10758,25 @@
         <v>2900</v>
       </c>
       <c r="E333" t="n">
-        <v>1165809.837851849</v>
+        <v>0</v>
       </c>
       <c r="F333" t="n">
-        <v>-1</v>
+        <v>0.6363636363636365</v>
       </c>
       <c r="G333" t="n">
-        <v>56.68368634814443</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H333" t="n">
-        <v>2436.704740125633</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I333" t="n">
-        <v>0.05204629675983713</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -10789,25 +10789,25 @@
         <v>2900</v>
       </c>
       <c r="E334" t="n">
-        <v>657318.3128313615</v>
+        <v>0</v>
       </c>
       <c r="F334" t="n">
-        <v>-1</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G334" t="n">
-        <v>56.6574701898281</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H334" t="n">
-        <v>4207.403072223454</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I334" t="n">
-        <v>0.04864736890561248</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -10820,25 +10820,25 @@
         <v>2900</v>
       </c>
       <c r="E335" t="n">
-        <v>843351.7975949544</v>
+        <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>-1</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G335" t="n">
-        <v>56.66902534443408</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H335" t="n">
-        <v>3333.081160937221</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I335" t="n">
-        <v>0.0503243609717219</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -10851,25 +10851,25 @@
         <v>2900</v>
       </c>
       <c r="E336" t="n">
-        <v>824748.4491185951</v>
+        <v>0</v>
       </c>
       <c r="F336" t="n">
-        <v>-1</v>
+        <v>0.9494949494949496</v>
       </c>
       <c r="G336" t="n">
-        <v>56.66758769817457</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H336" t="n">
-        <v>3405.945475402889</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I336" t="n">
-        <v>0.05018388045372196</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -10882,25 +10882,25 @@
         <v>2900</v>
       </c>
       <c r="E337" t="n">
-        <v>651117.1966725751</v>
+        <v>0</v>
       </c>
       <c r="F337" t="n">
-        <v>-1</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="G337" t="n">
-        <v>56.65688506675941</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H337" t="n">
-        <v>4243.081531815159</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I337" t="n">
-        <v>0.04857876353665505</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -10913,25 +10913,25 @@
         <v>2900</v>
       </c>
       <c r="E338" t="n">
-        <v>892960.7268652457</v>
+        <v>0</v>
       </c>
       <c r="F338" t="n">
-        <v>-1</v>
+        <v>0.8383838383838385</v>
       </c>
       <c r="G338" t="n">
-        <v>56.67238450578943</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H338" t="n">
-        <v>3157.723900864348</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I338" t="n">
-        <v>0.05066219672156049</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -10944,25 +10944,25 @@
         <v>2900</v>
       </c>
       <c r="E339" t="n">
-        <v>638714.9643550023</v>
+        <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>-1</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="G339" t="n">
-        <v>56.65610576262713</v>
+        <v>51.0633353116607</v>
       </c>
       <c r="H339" t="n">
-        <v>4316.415709938902</v>
+        <v>1480.80704848043</v>
       </c>
       <c r="I339" t="n">
-        <v>0.0484383466138946</v>
+        <v>48.30910602062895</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -10975,25 +10975,25 @@
         <v>2900</v>
       </c>
       <c r="E340" t="n">
-        <v>806145.1006422358</v>
+        <v>0</v>
       </c>
       <c r="F340" t="n">
-        <v>-1</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="G340" t="n">
-        <v>56.6670073579557</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H340" t="n">
-        <v>3481.620620425673</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I340" t="n">
-        <v>0.05003933894465223</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -11006,25 +11006,25 @@
         <v>2900</v>
       </c>
       <c r="E341" t="n">
-        <v>911564.0753416051</v>
+        <v>0</v>
       </c>
       <c r="F341" t="n">
-        <v>-1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G341" t="n">
-        <v>56.67331408462382</v>
+        <v>51.89948117719746</v>
       </c>
       <c r="H341" t="n">
-        <v>3094.744417864298</v>
+        <v>2272.516203187195</v>
       </c>
       <c r="I341" t="n">
-        <v>0.05078309334219451</v>
+        <v>47.67271125630513</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -11037,25 +11037,25 @@
         <v>2900</v>
       </c>
       <c r="E342" t="n">
-        <v>713128.3582604394</v>
+        <v>0</v>
       </c>
       <c r="F342" t="n">
-        <v>-1</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G342" t="n">
-        <v>56.66098680566832</v>
+        <v>51.0633353116607</v>
       </c>
       <c r="H342" t="n">
-        <v>3906.451490101829</v>
+        <v>1480.80704848043</v>
       </c>
       <c r="I342" t="n">
-        <v>0.04922395314224801</v>
+        <v>48.30910602062895</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=True_targetAct=False_targetTests=True_optimizeLockdowns=True_lockdownAvgConst=True</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -11068,19 +11068,19 @@
         <v>2900</v>
       </c>
       <c r="E343" t="n">
-        <v>750335.055213158</v>
+        <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>-1</v>
+        <v>0.7373737373737375</v>
       </c>
       <c r="G343" t="n">
-        <v>56.66318868344793</v>
+        <v>50.96740695781354</v>
       </c>
       <c r="H343" t="n">
-        <v>3725.794949061199</v>
+        <v>1395.13054824983</v>
       </c>
       <c r="I343" t="n">
-        <v>0.04957018651993803</v>
+        <v>48.37253180190045</v>
       </c>
     </row>
   </sheetData>
